--- a/창업기업평가_하나은행_2022_원본_07_10개독립변수.xlsx
+++ b/창업기업평가_하나은행_2022_원본_07_10개독립변수.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="89">
   <si>
     <t>D+</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,6 +378,10 @@
     <t>T_115</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>T_SC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -385,7 +389,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -404,7 +408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +451,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -462,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -502,10 +512,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -788,11 +801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O516"/>
+  <dimension ref="A1:P1036"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -804,9 +817,10 @@
     <col min="13" max="13" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.58203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
@@ -852,8 +866,11 @@
       <c r="O1" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>17</v>
       </c>
@@ -899,8 +916,11 @@
       <c r="O2" s="13">
         <v>0.41935483870967744</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P2">
+        <v>62.019999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>6</v>
       </c>
@@ -946,8 +966,11 @@
       <c r="O3" s="13">
         <v>1.0483870967741935</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P3">
+        <v>65.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>13</v>
       </c>
@@ -993,8 +1016,11 @@
       <c r="O4" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P4">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1040,8 +1066,11 @@
       <c r="O5" s="13">
         <v>2.0080645161290325</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P5">
+        <v>66.350000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1087,8 +1116,11 @@
       <c r="O6" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P6">
+        <v>54.819999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>73</v>
       </c>
@@ -1134,8 +1166,11 @@
       <c r="O7" s="13">
         <v>3.2264150943396226</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P7">
+        <v>82.240000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1181,8 +1216,11 @@
       <c r="O8" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P8">
+        <v>68.600000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1228,8 +1266,11 @@
       <c r="O9" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P9">
+        <v>56.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1275,8 +1316,11 @@
       <c r="O10" s="13">
         <v>2.3306451612903225</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P10">
+        <v>59.879999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>16</v>
       </c>
@@ -1322,8 +1366,11 @@
       <c r="O11" s="13">
         <v>1.2033898305084745</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P11">
+        <v>65.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>139</v>
       </c>
@@ -1369,8 +1416,11 @@
       <c r="O12" s="13">
         <v>1.2016129032258065</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P12">
+        <v>77.63000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>53</v>
       </c>
@@ -1416,8 +1466,11 @@
       <c r="O13" s="13">
         <v>1.0080645161290323</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P13">
+        <v>71.289999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1463,8 +1516,11 @@
       <c r="O14" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P14">
+        <v>63.509999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1510,8 +1566,11 @@
       <c r="O15" s="13">
         <v>2.7419354838709675</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P15">
+        <v>60.58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1557,8 +1616,11 @@
       <c r="O16" s="13">
         <v>2.4576271186440675</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P16">
+        <v>67.080000000000013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>20</v>
       </c>
@@ -1604,8 +1666,11 @@
       <c r="O17" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P17">
+        <v>57.849999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1651,8 +1716,11 @@
       <c r="O18" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P18">
+        <v>56.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1698,8 +1766,11 @@
       <c r="O19" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P19">
+        <v>56.109999999999992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>11</v>
       </c>
@@ -1745,8 +1816,11 @@
       <c r="O20" s="13">
         <v>4.5762711864406773</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P20">
+        <v>63.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1792,8 +1866,11 @@
       <c r="O21" s="13">
         <v>1.9832402234636872</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P21">
+        <v>73.55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1839,8 +1916,11 @@
       <c r="O22" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P22">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1886,8 +1966,11 @@
       <c r="O23" s="13">
         <v>5.0279329608938543E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P23">
+        <v>53.809999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>9</v>
       </c>
@@ -1933,8 +2016,11 @@
       <c r="O24" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P24">
+        <v>60.109999999999992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1980,8 +2066,11 @@
       <c r="O25" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P25">
+        <v>60.599999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>22</v>
       </c>
@@ -2027,8 +2116,11 @@
       <c r="O26" s="13">
         <v>16.83050847457627</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P26">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>14</v>
       </c>
@@ -2074,8 +2166,11 @@
       <c r="O27" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P27">
+        <v>54.660000000000011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>10</v>
       </c>
@@ -2121,8 +2216,11 @@
       <c r="O28" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P28">
+        <v>56.85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>12</v>
       </c>
@@ -2168,8 +2266,11 @@
       <c r="O29" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P29">
+        <v>52.59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>12</v>
       </c>
@@ -2215,8 +2316,11 @@
       <c r="O30" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P30">
+        <v>67.919999999999987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>80</v>
       </c>
@@ -2262,8 +2366,11 @@
       <c r="O31" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P31">
+        <v>72.039999999999992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>17</v>
       </c>
@@ -2309,8 +2416,11 @@
       <c r="O32" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P32">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>87</v>
       </c>
@@ -2356,8 +2466,11 @@
       <c r="O33" s="13">
         <v>0.66480446927374304</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P33">
+        <v>74.899999999999991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>12</v>
       </c>
@@ -2403,8 +2516,11 @@
       <c r="O34" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P34">
+        <v>60.309999999999988</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>62</v>
       </c>
@@ -2450,8 +2566,11 @@
       <c r="O35" s="13">
         <v>8.8491620111731848</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P35">
+        <v>77.92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>6</v>
       </c>
@@ -2497,8 +2616,11 @@
       <c r="O36" s="13">
         <v>4.5530726256983245</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P36">
+        <v>74.810000000000016</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>5</v>
       </c>
@@ -2544,8 +2666,11 @@
       <c r="O37" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P37">
+        <v>61.009999999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>9</v>
       </c>
@@ -2591,8 +2716,11 @@
       <c r="O38" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P38">
+        <v>57.58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>12</v>
       </c>
@@ -2638,8 +2766,11 @@
       <c r="O39" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P39">
+        <v>52.16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>79</v>
       </c>
@@ -2685,8 +2816,11 @@
       <c r="O40" s="13">
         <v>1.3515625</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P40">
+        <v>66.339999999999989</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2732,8 +2866,11 @@
       <c r="O41" s="13">
         <v>3.0703124999999996</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P41">
+        <v>58.56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2779,8 +2916,11 @@
       <c r="O42" s="13">
         <v>6.71875</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P42">
+        <v>65.259999999999991</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>4</v>
       </c>
@@ -2826,8 +2966,11 @@
       <c r="O43" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P43">
+        <v>63.08</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>7</v>
       </c>
@@ -2873,8 +3016,11 @@
       <c r="O44" s="13">
         <v>0.13829787234042556</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P44">
+        <v>55.08</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>4</v>
       </c>
@@ -2920,8 +3066,11 @@
       <c r="O45" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P45">
+        <v>63.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2967,8 +3116,11 @@
       <c r="O46" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P46">
+        <v>57.679999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>10</v>
       </c>
@@ -3014,8 +3166,11 @@
       <c r="O47" s="13">
         <v>0.36224489795918369</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P47">
+        <v>61.350000000000016</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>28</v>
       </c>
@@ -3061,8 +3216,11 @@
       <c r="O48" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P48">
+        <v>62.17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>9</v>
       </c>
@@ -3108,8 +3266,11 @@
       <c r="O49" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P49">
+        <v>51.26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>15</v>
       </c>
@@ -3155,8 +3316,11 @@
       <c r="O50" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P50">
+        <v>56.259999999999984</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>31</v>
       </c>
@@ -3202,8 +3366,11 @@
       <c r="O51" s="13">
         <v>3.127272727272727</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P51">
+        <v>73.040000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>7</v>
       </c>
@@ -3249,8 +3416,11 @@
       <c r="O52" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P52">
+        <v>54.84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>35</v>
       </c>
@@ -3296,8 +3466,11 @@
       <c r="O53" s="13">
         <v>2.4173913043478263</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P53">
+        <v>72.48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>9</v>
       </c>
@@ -3343,8 +3516,11 @@
       <c r="O54" s="13">
         <v>0.69565217391304357</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P54">
+        <v>62.99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>6</v>
       </c>
@@ -3390,8 +3566,11 @@
       <c r="O55" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P55">
+        <v>51.21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>33</v>
       </c>
@@ -3437,8 +3616,11 @@
       <c r="O56" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P56">
+        <v>64.73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>6</v>
       </c>
@@ -3484,8 +3666,11 @@
       <c r="O57" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P57">
+        <v>62.27000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>3</v>
       </c>
@@ -3531,8 +3716,11 @@
       <c r="O58" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P58">
+        <v>54.72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>20</v>
       </c>
@@ -3578,8 +3766,11 @@
       <c r="O59" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P59">
+        <v>55.08</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>54</v>
       </c>
@@ -3625,8 +3816,11 @@
       <c r="O60" s="13">
         <v>1.4782608695652175</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P60">
+        <v>65.150000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>8</v>
       </c>
@@ -3672,8 +3866,11 @@
       <c r="O61" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P61">
+        <v>51.589999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>10</v>
       </c>
@@ -3719,8 +3916,11 @@
       <c r="O62" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P62">
+        <v>58.739999999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>17</v>
       </c>
@@ -3766,8 +3966,11 @@
       <c r="O63" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P63">
+        <v>59.040000000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>6</v>
       </c>
@@ -3813,8 +4016,11 @@
       <c r="O64" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P64">
+        <v>57.540000000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>20</v>
       </c>
@@ -3860,8 +4066,11 @@
       <c r="O65" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P65">
+        <v>62.559999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>3</v>
       </c>
@@ -3907,8 +4116,11 @@
       <c r="O66" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P66">
+        <v>54.230000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>28</v>
       </c>
@@ -3954,8 +4166,11 @@
       <c r="O67" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P67">
+        <v>60.34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>65</v>
       </c>
@@ -4001,8 +4216,11 @@
       <c r="O68" s="13">
         <v>1.6645569620253164</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P68">
+        <v>72.23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>9</v>
       </c>
@@ -4048,8 +4266,11 @@
       <c r="O69" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P69">
+        <v>62.52000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>7</v>
       </c>
@@ -4095,8 +4316,11 @@
       <c r="O70" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P70">
+        <v>61.06</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>16</v>
       </c>
@@ -4142,8 +4366,11 @@
       <c r="O71" s="13">
         <v>24.360759493670884</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P71">
+        <v>63.819999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>8</v>
       </c>
@@ -4189,8 +4416,11 @@
       <c r="O72" s="13">
         <v>1.0426829268292683</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P72">
+        <v>49.55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>4</v>
       </c>
@@ -4236,8 +4466,11 @@
       <c r="O73" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P73">
+        <v>52.05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>9</v>
       </c>
@@ -4283,8 +4516,11 @@
       <c r="O74" s="13">
         <v>1.2830188679245285</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P74">
+        <v>62.64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>17</v>
       </c>
@@ -4330,8 +4566,11 @@
       <c r="O75" s="13">
         <v>0.72641509433962259</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P75">
+        <v>66.13000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A76" s="4">
         <v>18</v>
       </c>
@@ -4377,8 +4616,11 @@
       <c r="O76" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="P76">
+        <v>59.32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="4">
         <v>10</v>
       </c>
@@ -4424,8 +4666,11 @@
       <c r="O77" s="14">
         <v>1.781818181818182</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P77">
+        <v>54.290000000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A78" s="4">
         <v>5</v>
       </c>
@@ -4471,8 +4716,11 @@
       <c r="O78" s="13">
         <v>7.284848484848486</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P78">
+        <v>56.289999999999992</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A79" s="4">
         <v>8</v>
       </c>
@@ -4518,8 +4766,11 @@
       <c r="O79" s="13">
         <v>1.6484848484848487</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P79">
+        <v>74.38000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A80" s="4">
         <v>6</v>
       </c>
@@ -4565,8 +4816,11 @@
       <c r="O80" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P80">
+        <v>53.63000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A81" s="4">
         <v>7</v>
       </c>
@@ -4612,8 +4866,11 @@
       <c r="O81" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P81">
+        <v>52.550000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A82" s="4">
         <v>6</v>
       </c>
@@ -4659,8 +4916,11 @@
       <c r="O82" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P82">
+        <v>60.349999999999994</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A83" s="4">
         <v>16</v>
       </c>
@@ -4706,8 +4966,11 @@
       <c r="O83" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P83">
+        <v>60.89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A84" s="4">
         <v>16</v>
       </c>
@@ -4753,8 +5016,11 @@
       <c r="O84" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P84">
+        <v>53.31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A85" s="4">
         <v>46</v>
       </c>
@@ -4800,8 +5066,11 @@
       <c r="O85" s="13">
         <v>8.3035714285714288</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P85">
+        <v>73.180000000000007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A86" s="4">
         <v>11</v>
       </c>
@@ -4847,8 +5116,11 @@
       <c r="O86" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P86">
+        <v>62.37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A87" s="4">
         <v>6</v>
       </c>
@@ -4894,8 +5166,11 @@
       <c r="O87" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P87">
+        <v>62.230000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A88" s="4">
         <v>10</v>
       </c>
@@ -4941,8 +5216,11 @@
       <c r="O88" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P88">
+        <v>65.75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A89" s="4">
         <v>24</v>
       </c>
@@ -4988,8 +5266,11 @@
       <c r="O89" s="13">
         <v>3.2682926829268282</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P89">
+        <v>65.89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A90" s="4">
         <v>19</v>
       </c>
@@ -5035,8 +5316,11 @@
       <c r="O90" s="13">
         <v>0.7567567567567568</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P90">
+        <v>60.580000000000013</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A91" s="4">
         <v>3</v>
       </c>
@@ -5082,8 +5366,11 @@
       <c r="O91" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P91">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A92" s="4">
         <v>33</v>
       </c>
@@ -5129,8 +5416,11 @@
       <c r="O92" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P92">
+        <v>72.360000000000014</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A93" s="4">
         <v>22</v>
       </c>
@@ -5176,8 +5466,11 @@
       <c r="O93" s="13">
         <v>2.6418918918918917</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P93">
+        <v>74.430000000000021</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A94" s="4">
         <v>49</v>
       </c>
@@ -5223,8 +5516,11 @@
       <c r="O94" s="13">
         <v>2.7187499999999996</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P94">
+        <v>70.750000000000014</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A95" s="4">
         <v>5</v>
       </c>
@@ -5270,8 +5566,11 @@
       <c r="O95" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P95">
+        <v>54.72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A96" s="4">
         <v>10</v>
       </c>
@@ -5317,8 +5616,11 @@
       <c r="O96" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P96">
+        <v>70.37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A97" s="4">
         <v>13</v>
       </c>
@@ -5364,8 +5666,11 @@
       <c r="O97" s="13">
         <v>229.33333333333329</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P97">
+        <v>64.33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A98" s="4">
         <v>13</v>
       </c>
@@ -5411,8 +5716,11 @@
       <c r="O98" s="13">
         <v>0.1336996336996337</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P98">
+        <v>50.53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A99" s="4">
         <v>31</v>
       </c>
@@ -5458,8 +5766,11 @@
       <c r="O99" s="13">
         <v>144.03814713896458</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P99">
+        <v>80.859999999999985</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A100" s="4">
         <v>50</v>
       </c>
@@ -5505,8 +5816,11 @@
       <c r="O100" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P100">
+        <v>69.72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A101" s="4">
         <v>4</v>
       </c>
@@ -5552,8 +5866,11 @@
       <c r="O101" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P101">
+        <v>60.360000000000014</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A102" s="4">
         <v>28</v>
       </c>
@@ -5599,8 +5916,11 @@
       <c r="O102" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P102">
+        <v>54.87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A103" s="4">
         <v>12</v>
       </c>
@@ -5646,8 +5966,11 @@
       <c r="O103" s="13">
         <v>1.7901907356948228</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P103">
+        <v>57.040000000000006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A104" s="4">
         <v>11</v>
       </c>
@@ -5693,8 +6016,11 @@
       <c r="O104" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P104">
+        <v>60.839999999999989</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A105" s="4">
         <v>9</v>
       </c>
@@ -5740,8 +6066,11 @@
       <c r="O105" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P105">
+        <v>50.399999999999991</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A106" s="4">
         <v>9</v>
       </c>
@@ -5787,8 +6116,11 @@
       <c r="O106" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P106">
+        <v>64.86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A107" s="4">
         <v>4</v>
       </c>
@@ -5834,8 +6166,11 @@
       <c r="O107" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P107">
+        <v>59.92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A108" s="4">
         <v>17</v>
       </c>
@@ -5881,8 +6216,11 @@
       <c r="O108" s="13">
         <v>5.9209809264305173</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P108">
+        <v>64.100000000000009</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A109" s="4">
         <v>207</v>
       </c>
@@ -5928,8 +6266,11 @@
       <c r="O109" s="13">
         <v>0.84677419354838723</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P109">
+        <v>85.55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A110" s="4">
         <v>4</v>
       </c>
@@ -5975,8 +6316,11 @@
       <c r="O110" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P110">
+        <v>63.66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A111" s="4">
         <v>7</v>
       </c>
@@ -6022,8 +6366,11 @@
       <c r="O111" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P111">
+        <v>62.300000000000011</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A112" s="4">
         <v>11</v>
       </c>
@@ -6069,8 +6416,11 @@
       <c r="O112" s="13">
         <v>3.9671814671814678</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P112">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A113" s="4">
         <v>4</v>
       </c>
@@ -6116,8 +6466,11 @@
       <c r="O113" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P113">
+        <v>52.710000000000008</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A114" s="4">
         <v>174</v>
       </c>
@@ -6163,8 +6516,11 @@
       <c r="O114" s="13">
         <v>0.14671814671814673</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P114">
+        <v>73.100000000000009</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A115" s="4">
         <v>7</v>
       </c>
@@ -6210,8 +6566,11 @@
       <c r="O115" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P115">
+        <v>58.69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A116" s="4">
         <v>5</v>
       </c>
@@ -6257,8 +6616,11 @@
       <c r="O116" s="13">
         <v>1.4795640326975474</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P116">
+        <v>63.69</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A117" s="4">
         <v>14</v>
       </c>
@@ -6304,8 +6666,11 @@
       <c r="O117" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P117">
+        <v>57.17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A118" s="4">
         <v>76</v>
       </c>
@@ -6351,8 +6716,11 @@
       <c r="O118" s="13">
         <v>0.42664092664092668</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P118">
+        <v>64.27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A119" s="4">
         <v>6</v>
       </c>
@@ -6398,8 +6766,11 @@
       <c r="O119" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P119">
+        <v>52.95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A120" s="4">
         <v>10</v>
       </c>
@@ -6445,8 +6816,11 @@
       <c r="O120" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P120">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A121" s="4">
         <v>12</v>
       </c>
@@ -6492,8 +6866,11 @@
       <c r="O121" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P121">
+        <v>52.470000000000013</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A122" s="4">
         <v>5</v>
       </c>
@@ -6539,8 +6916,11 @@
       <c r="O122" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P122">
+        <v>57.110000000000014</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A123" s="4">
         <v>12</v>
       </c>
@@ -6586,8 +6966,11 @@
       <c r="O123" s="13">
         <v>0.74324324324324331</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P123">
+        <v>65.990000000000009</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A124" s="4">
         <v>27</v>
       </c>
@@ -6633,8 +7016,11 @@
       <c r="O124" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P124">
+        <v>76.03</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A125" s="4">
         <v>13</v>
       </c>
@@ -6680,8 +7066,11 @@
       <c r="O125" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P125">
+        <v>63.34</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A126" s="4">
         <v>6</v>
       </c>
@@ -6727,8 +7116,11 @@
       <c r="O126" s="13">
         <v>0.74324324324324331</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P126">
+        <v>58.88000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A127" s="4">
         <v>13</v>
       </c>
@@ -6774,8 +7166,11 @@
       <c r="O127" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P127">
+        <v>74.650000000000006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A128" s="4">
         <v>6</v>
       </c>
@@ -6821,8 +7216,11 @@
       <c r="O128" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P128">
+        <v>75.349999999999994</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A129" s="4">
         <v>24</v>
       </c>
@@ -6868,8 +7266,11 @@
       <c r="O129" s="13">
         <v>154.21596958174902</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P129">
+        <v>74.17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A130" s="4">
         <v>54</v>
       </c>
@@ -6915,8 +7316,11 @@
       <c r="O130" s="13">
         <v>358112.58278145699</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P130">
+        <v>69.140000000000015</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A131" s="4">
         <v>4</v>
       </c>
@@ -6962,8 +7366,11 @@
       <c r="O131" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P131">
+        <v>59.92</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A132" s="4">
         <v>25</v>
       </c>
@@ -7009,8 +7416,11 @@
       <c r="O132" s="13">
         <v>2.7555705604321408</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P132">
+        <v>82.28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A133" s="4">
         <v>20</v>
       </c>
@@ -7056,8 +7466,11 @@
       <c r="O133" s="13">
         <v>8.3650190114068455E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P133">
+        <v>67.349999999999994</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A134" s="4">
         <v>8</v>
       </c>
@@ -7103,8 +7516,11 @@
       <c r="O134" s="13">
         <v>2.3787375415282392</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P134">
+        <v>65.91</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A135" s="4">
         <v>7</v>
       </c>
@@ -7150,8 +7566,11 @@
       <c r="O135" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P135">
+        <v>59.940000000000012</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A136" s="4">
         <v>5</v>
       </c>
@@ -7197,8 +7616,11 @@
       <c r="O136" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P136">
+        <v>50.44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A137" s="4">
         <v>5</v>
       </c>
@@ -7244,8 +7666,11 @@
       <c r="O137" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P137">
+        <v>73.050000000000011</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A138" s="4">
         <v>6</v>
       </c>
@@ -7291,8 +7716,11 @@
       <c r="O138" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P138">
+        <v>57.499999999999993</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A139" s="4">
         <v>67</v>
       </c>
@@ -7338,8 +7766,11 @@
       <c r="O139" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P139">
+        <v>63.65</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A140" s="4">
         <v>24</v>
       </c>
@@ -7385,8 +7816,11 @@
       <c r="O140" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P140">
+        <v>56.91</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A141" s="4">
         <v>4</v>
       </c>
@@ -7432,8 +7866,11 @@
       <c r="O141" s="13">
         <v>6.0289855072463769</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P141">
+        <v>63.66</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A142" s="4">
         <v>2</v>
       </c>
@@ -7479,8 +7916,11 @@
       <c r="O142" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P142">
+        <v>51.95</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A143" s="4">
         <v>8</v>
       </c>
@@ -7526,8 +7966,11 @@
       <c r="O143" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P143">
+        <v>62.040000000000006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A144" s="4">
         <v>10</v>
       </c>
@@ -7573,8 +8016,11 @@
       <c r="O144" s="13">
         <v>1.5652173913043479</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P144">
+        <v>54.66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A145" s="4">
         <v>22</v>
       </c>
@@ -7620,8 +8066,11 @@
       <c r="O145" s="13">
         <v>0.86601307189542465</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P145">
+        <v>78.05</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A146" s="4">
         <v>8</v>
       </c>
@@ -7667,8 +8116,11 @@
       <c r="O146" s="13">
         <v>2.1241830065359473</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P146">
+        <v>62.760000000000005</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A147" s="4">
         <v>3</v>
       </c>
@@ -7714,8 +8166,11 @@
       <c r="O147" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P147">
+        <v>52.67</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A148" s="4">
         <v>6</v>
       </c>
@@ -7761,8 +8216,11 @@
       <c r="O148" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P148">
+        <v>55.019999999999996</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A149" s="4">
         <v>24</v>
       </c>
@@ -7808,8 +8266,11 @@
       <c r="O149" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P149">
+        <v>60.390000000000015</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A150" s="4">
         <v>13</v>
       </c>
@@ -7855,8 +8316,11 @@
       <c r="O150" s="13">
         <v>8.4346405228758154</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P150">
+        <v>68.210000000000008</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A151" s="4">
         <v>11</v>
       </c>
@@ -7902,8 +8366,11 @@
       <c r="O151" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P151">
+        <v>60.38</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A152" s="4">
         <v>6</v>
       </c>
@@ -7949,8 +8416,11 @@
       <c r="O152" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="P152">
+        <v>59.12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A153" s="4">
         <v>26</v>
       </c>
@@ -7996,8 +8466,11 @@
       <c r="O153" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P153">
+        <v>57.22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A154" s="4">
         <v>5</v>
       </c>
@@ -8043,8 +8516,11 @@
       <c r="O154" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P154">
+        <v>58.22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A155" s="4">
         <v>28</v>
       </c>
@@ -8090,8 +8566,11 @@
       <c r="O155" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P155">
+        <v>68.890000000000015</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A156" s="4">
         <v>10</v>
       </c>
@@ -8137,8 +8616,11 @@
       <c r="O156" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P156">
+        <v>58.349999999999994</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A157" s="4">
         <v>9</v>
       </c>
@@ -8184,8 +8666,11 @@
       <c r="O157" s="13">
         <v>8.3333333333333343E-2</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P157">
+        <v>52.13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A158" s="4">
         <v>7</v>
       </c>
@@ -8231,8 +8716,11 @@
       <c r="O158" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P158">
+        <v>56.68</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A159" s="4">
         <v>101</v>
       </c>
@@ -8278,8 +8766,11 @@
       <c r="O159" s="13">
         <v>8.3333333333333343E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P159">
+        <v>61.86</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A160" s="4">
         <v>10</v>
       </c>
@@ -8325,8 +8816,11 @@
       <c r="O160" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P160">
+        <v>72.69</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A161" s="4">
         <v>12</v>
       </c>
@@ -8372,8 +8866,11 @@
       <c r="O161" s="13">
         <v>0.73043478260869554</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P161">
+        <v>62.989999999999995</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A162" s="4">
         <v>27</v>
       </c>
@@ -8419,8 +8916,11 @@
       <c r="O162" s="13">
         <v>1.1538461538461537</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P162">
+        <v>65.009999999999991</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A163" s="4">
         <v>19</v>
       </c>
@@ -8466,8 +8966,11 @@
       <c r="O163" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P163">
+        <v>62.08</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A164" s="4">
         <v>5</v>
       </c>
@@ -8513,8 +9016,11 @@
       <c r="O164" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P164">
+        <v>57.180000000000007</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A165" s="4">
         <v>13</v>
       </c>
@@ -8560,8 +9066,11 @@
       <c r="O165" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P165">
+        <v>63.75</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A166" s="4">
         <v>9</v>
       </c>
@@ -8607,8 +9116,11 @@
       <c r="O166" s="13">
         <v>1.2649572649572651</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P166">
+        <v>62.95</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A167" s="4">
         <v>142</v>
       </c>
@@ -8654,8 +9166,11 @@
       <c r="O167" s="13">
         <v>0.35042735042735046</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P167">
+        <v>75.86</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A168" s="4">
         <v>7</v>
       </c>
@@ -8701,8 +9216,11 @@
       <c r="O168" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P168">
+        <v>68.14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A169" s="4">
         <v>4</v>
       </c>
@@ -8748,8 +9266,11 @@
       <c r="O169" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P169">
+        <v>64.490000000000009</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A170" s="4">
         <v>15</v>
       </c>
@@ -8795,8 +9316,11 @@
       <c r="O170" s="13">
         <v>2.5714285714285716</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P170">
+        <v>68.989999999999995</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A171" s="4">
         <v>6</v>
       </c>
@@ -8842,8 +9366,11 @@
       <c r="O171" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P171">
+        <v>58.909999999999989</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A172" s="4">
         <v>5</v>
       </c>
@@ -8889,8 +9416,11 @@
       <c r="O172" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P172">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A173" s="4">
         <v>12</v>
       </c>
@@ -8936,8 +9466,11 @@
       <c r="O173" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P173">
+        <v>60.45</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A174" s="4">
         <v>8</v>
       </c>
@@ -8983,8 +9516,11 @@
       <c r="O174" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P174">
+        <v>61.57</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A175" s="4">
         <v>8</v>
       </c>
@@ -9030,8 +9566,11 @@
       <c r="O175" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P175">
+        <v>61.72</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A176" s="4">
         <v>32</v>
       </c>
@@ -9077,8 +9616,11 @@
       <c r="O176" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P176">
+        <v>72.09</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A177" s="4">
         <v>14</v>
       </c>
@@ -9124,8 +9666,11 @@
       <c r="O177" s="13">
         <v>1.0222222222222224</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P177">
+        <v>58.73</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A178" s="4">
         <v>3</v>
       </c>
@@ -9171,8 +9716,11 @@
       <c r="O178" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P178">
+        <v>70.430000000000021</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A179" s="4">
         <v>6</v>
       </c>
@@ -9218,8 +9766,11 @@
       <c r="O179" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P179">
+        <v>58.53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A180" s="4">
         <v>11</v>
       </c>
@@ -9265,8 +9816,11 @@
       <c r="O180" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P180">
+        <v>62.47</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A181" s="4">
         <v>17</v>
       </c>
@@ -9312,8 +9866,11 @@
       <c r="O181" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P181">
+        <v>57.960000000000008</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A182" s="4">
         <v>9</v>
       </c>
@@ -9359,8 +9916,11 @@
       <c r="O182" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P182">
+        <v>67.09</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A183" s="4">
         <v>6</v>
       </c>
@@ -9406,8 +9966,11 @@
       <c r="O183" s="13">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P183">
+        <v>61.349999999999994</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A184" s="4">
         <v>10</v>
       </c>
@@ -9453,8 +10016,11 @@
       <c r="O184" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P184">
+        <v>60.769999999999996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A185" s="4">
         <v>6</v>
       </c>
@@ -9500,8 +10066,11 @@
       <c r="O185" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P185">
+        <v>58.169999999999987</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A186" s="4">
         <v>11</v>
       </c>
@@ -9547,8 +10116,11 @@
       <c r="O186" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P186">
+        <v>53.03</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A187" s="4">
         <v>12</v>
       </c>
@@ -9594,8 +10166,11 @@
       <c r="O187" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P187">
+        <v>66.97999999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A188" s="4">
         <v>13</v>
       </c>
@@ -9641,8 +10216,11 @@
       <c r="O188" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P188">
+        <v>63.429999999999993</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A189" s="4">
         <v>4</v>
       </c>
@@ -9688,8 +10266,11 @@
       <c r="O189" s="13">
         <v>6.3420074349442395</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P189">
+        <v>59.61</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A190" s="4">
         <v>16</v>
       </c>
@@ -9735,8 +10316,11 @@
       <c r="O190" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P190">
+        <v>67.780000000000015</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A191" s="4">
         <v>7</v>
       </c>
@@ -9782,8 +10366,11 @@
       <c r="O191" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P191">
+        <v>58.050000000000011</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A192" s="4">
         <v>21</v>
       </c>
@@ -9829,8 +10416,11 @@
       <c r="O192" s="13">
         <v>0.53888888888888886</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P192">
+        <v>67.98</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A193" s="4">
         <v>17</v>
       </c>
@@ -9876,8 +10466,11 @@
       <c r="O193" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P193">
+        <v>72.62</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A194" s="4">
         <v>16</v>
       </c>
@@ -9923,8 +10516,11 @@
       <c r="O194" s="13">
         <v>3.717472118959108E-2</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P194">
+        <v>58.960000000000008</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A195" s="4">
         <v>32</v>
       </c>
@@ -9970,8 +10566,11 @@
       <c r="O195" s="13">
         <v>0.41635687732342014</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P195">
+        <v>70.820000000000022</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A196" s="4">
         <v>5</v>
       </c>
@@ -10017,8 +10616,11 @@
       <c r="O196" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P196">
+        <v>65.48</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A197" s="4">
         <v>9</v>
       </c>
@@ -10064,8 +10666,11 @@
       <c r="O197" s="13">
         <v>1.1777777777777778</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P197">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A198" s="4">
         <v>5</v>
       </c>
@@ -10111,8 +10716,11 @@
       <c r="O198" s="13">
         <v>7.7777777777777779E-2</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P198">
+        <v>67.48</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A199" s="4">
         <v>22</v>
       </c>
@@ -10155,8 +10763,11 @@
       <c r="O199" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P199">
+        <v>66.209999999999994</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A200" s="4">
         <v>5</v>
       </c>
@@ -10202,8 +10813,11 @@
       <c r="O200" s="13">
         <v>3.1449814126394058</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P200">
+        <v>66.09</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A201" s="4">
         <v>8</v>
       </c>
@@ -10249,8 +10863,11 @@
       <c r="O201" s="13">
         <v>0.77167630057803471</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P201">
+        <v>72.890000000000015</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A202" s="4">
         <v>6</v>
       </c>
@@ -10296,8 +10913,11 @@
       <c r="O202" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P202">
+        <v>65.89</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A203" s="4">
         <v>29</v>
       </c>
@@ -10343,8 +10963,11 @@
       <c r="O203" s="13">
         <v>0.87360594795539026</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P203">
+        <v>63.179999999999993</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A204" s="4">
         <v>8</v>
       </c>
@@ -10390,8 +11013,11 @@
       <c r="O204" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P204">
+        <v>63.41</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A205" s="4">
         <v>16</v>
       </c>
@@ -10437,8 +11063,11 @@
       <c r="O205" s="13">
         <v>1.446096654275093</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P205">
+        <v>70.06</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A206" s="4">
         <v>11</v>
       </c>
@@ -10484,8 +11113,11 @@
       <c r="O206" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P206">
+        <v>68.22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A207" s="4">
         <v>30</v>
       </c>
@@ -10531,8 +11163,11 @@
       <c r="O207" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P207">
+        <v>64.100000000000009</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A208" s="4">
         <v>15</v>
       </c>
@@ -10578,8 +11213,11 @@
       <c r="O208" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P208">
+        <v>73.09</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A209" s="4">
         <v>8</v>
       </c>
@@ -10625,8 +11263,11 @@
       <c r="O209" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P209">
+        <v>67.010000000000005</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A210" s="4">
         <v>28</v>
       </c>
@@ -10672,8 +11313,11 @@
       <c r="O210" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P210">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A211" s="4">
         <v>99</v>
       </c>
@@ -10719,8 +11363,11 @@
       <c r="O211" s="13">
         <v>2.2304832713754649E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P211">
+        <v>75.38000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A212" s="4">
         <v>6</v>
       </c>
@@ -10766,8 +11413,11 @@
       <c r="O212" s="13">
         <v>8.9219330855018597E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P212">
+        <v>65.550000000000011</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A213" s="4">
         <v>34</v>
       </c>
@@ -10813,8 +11463,11 @@
       <c r="O213" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P213">
+        <v>73.02000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A214" s="4">
         <v>11</v>
       </c>
@@ -10860,8 +11513,11 @@
       <c r="O214" s="13">
         <v>2.7992565055762086</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P214">
+        <v>76.520000000000024</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A215" s="4">
         <v>9</v>
       </c>
@@ -10907,8 +11563,11 @@
       <c r="O215" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P215">
+        <v>63.050000000000011</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A216" s="4">
         <v>16</v>
       </c>
@@ -10954,8 +11613,11 @@
       <c r="O216" s="13">
         <v>0.79414093428345223</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P216">
+        <v>59.960000000000008</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A217" s="4">
         <v>17</v>
       </c>
@@ -11001,8 +11663,11 @@
       <c r="O217" s="13">
         <v>0.40986394557823125</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P217">
+        <v>70.330000000000013</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A218" s="4">
         <v>10</v>
       </c>
@@ -11048,8 +11713,11 @@
       <c r="O218" s="13">
         <v>0.26429479034307496</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P218">
+        <v>65.81</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A219" s="4">
         <v>9</v>
       </c>
@@ -11095,8 +11763,11 @@
       <c r="O219" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P219">
+        <v>65.250000000000014</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A220" s="4">
         <v>6</v>
       </c>
@@ -11142,8 +11813,11 @@
       <c r="O220" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P220">
+        <v>57.55</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A221" s="4">
         <v>9</v>
       </c>
@@ -11189,8 +11863,11 @@
       <c r="O221" s="13">
         <v>1.28852616418627</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P221">
+        <v>69.990000000000009</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A222" s="4">
         <v>6</v>
       </c>
@@ -11236,8 +11913,11 @@
       <c r="O222" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P222">
+        <v>64.739999999999995</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A223" s="4">
         <v>5</v>
       </c>
@@ -11283,8 +11963,11 @@
       <c r="O223" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P223">
+        <v>62.069999999999993</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A224" s="4">
         <v>24</v>
       </c>
@@ -11330,8 +12013,11 @@
       <c r="O224" s="13">
         <v>0.15063731170336039</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P224">
+        <v>67.290000000000006</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A225" s="4">
         <v>3</v>
       </c>
@@ -11377,8 +12063,11 @@
       <c r="O225" s="13">
         <v>2.1262602016322614</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P225">
+        <v>60.849999999999994</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A226" s="4">
         <v>11</v>
       </c>
@@ -11424,8 +12113,11 @@
       <c r="O226" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P226">
+        <v>62.250000000000014</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A227" s="4">
         <v>20</v>
       </c>
@@ -11471,8 +12163,11 @@
       <c r="O227" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P227">
+        <v>65.190000000000012</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A228" s="4">
         <v>9</v>
       </c>
@@ -11518,8 +12213,11 @@
       <c r="O228" s="13">
         <v>2.0040551500405517</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="P228">
+        <v>64.580000000000013</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A229" s="4">
         <v>10</v>
       </c>
@@ -11565,8 +12263,11 @@
       <c r="O229" s="14">
         <v>1.1934709553528566</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P229">
+        <v>67.03</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A230" s="4">
         <v>12</v>
       </c>
@@ -11612,8 +12313,11 @@
       <c r="O230" s="13">
         <v>3.3476245654692938</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P230">
+        <v>75.150000000000006</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A231" s="4">
         <v>6</v>
       </c>
@@ -11659,8 +12363,11 @@
       <c r="O231" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P231">
+        <v>57.860000000000014</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A232" s="4">
         <v>20</v>
       </c>
@@ -11706,8 +12413,11 @@
       <c r="O232" s="13">
         <v>0.47023004059539925</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P232">
+        <v>63.730000000000004</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A233" s="4">
         <v>45</v>
       </c>
@@ -11753,8 +12463,11 @@
       <c r="O233" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P233">
+        <v>62.370000000000005</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A234" s="4">
         <v>7</v>
       </c>
@@ -11800,8 +12513,11 @@
       <c r="O234" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P234">
+        <v>63.440000000000012</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A235" s="4">
         <v>10</v>
       </c>
@@ -11847,8 +12563,11 @@
       <c r="O235" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P235">
+        <v>64.34</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A236" s="4">
         <v>26</v>
       </c>
@@ -11894,8 +12613,11 @@
       <c r="O236" s="13">
         <v>8.9213300892133016E-3</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P236">
+        <v>54.41</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A237" s="4">
         <v>30</v>
       </c>
@@ -11941,8 +12663,11 @@
       <c r="O237" s="13">
         <v>7.101727447216892E-2</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P237">
+        <v>77.16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A238" s="4">
         <v>23</v>
       </c>
@@ -11988,8 +12713,11 @@
       <c r="O238" s="13">
         <v>2.5996112730806611</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P238">
+        <v>79.64</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A239" s="4">
         <v>5</v>
       </c>
@@ -12035,8 +12763,11 @@
       <c r="O239" s="13">
         <v>12.931972789115646</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P239">
+        <v>64.489999999999995</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A240" s="4">
         <v>5</v>
       </c>
@@ -12082,8 +12813,11 @@
       <c r="O240" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P240">
+        <v>65.44</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A241" s="4">
         <v>9</v>
       </c>
@@ -12129,8 +12863,11 @@
       <c r="O241" s="13">
         <v>12.867832847424685</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P241">
+        <v>74.620000000000019</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A242" s="4">
         <v>19</v>
       </c>
@@ -12176,8 +12913,11 @@
       <c r="O242" s="13">
         <v>9.4266277939747331E-2</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P242">
+        <v>63.620000000000005</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A243" s="4">
         <v>26</v>
       </c>
@@ -12223,8 +12963,11 @@
       <c r="O243" s="13">
         <v>5.3449951409135089E-2</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P243">
+        <v>77.73</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A244" s="4">
         <v>7</v>
       </c>
@@ -12270,8 +13013,11 @@
       <c r="O244" s="13">
         <v>0.34908845374746794</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P244">
+        <v>55.430000000000007</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A245" s="4">
         <v>19</v>
       </c>
@@ -12317,8 +13063,11 @@
       <c r="O245" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P245">
+        <v>64.210000000000008</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A246" s="4">
         <v>7</v>
       </c>
@@ -12364,8 +13113,11 @@
       <c r="O246" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P246">
+        <v>57.360000000000014</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A247" s="4">
         <v>5</v>
       </c>
@@ -12411,8 +13163,11 @@
       <c r="O247" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P247">
+        <v>62.480000000000004</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A248" s="4">
         <v>14</v>
       </c>
@@ -12458,8 +13213,11 @@
       <c r="O248" s="13">
         <v>0.79203241053342333</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P248">
+        <v>69.36</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A249" s="4">
         <v>29</v>
       </c>
@@ -12505,8 +13263,11 @@
       <c r="O249" s="13">
         <v>4.5587949465500488</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P249">
+        <v>68.990000000000009</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A250" s="4">
         <v>12</v>
       </c>
@@ -12552,8 +13313,11 @@
       <c r="O250" s="13">
         <v>0.66239027683997298</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P250">
+        <v>64.72</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A251" s="4">
         <v>20</v>
       </c>
@@ -12599,8 +13363,11 @@
       <c r="O251" s="13">
         <v>0.18973666441593517</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P251">
+        <v>68.58</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A252" s="4">
         <v>60</v>
       </c>
@@ -12646,8 +13413,11 @@
       <c r="O252" s="13">
         <v>8.237677245104659E-2</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P252">
+        <v>68.67</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A253" s="4">
         <v>15</v>
       </c>
@@ -12693,8 +13463,11 @@
       <c r="O253" s="13">
         <v>4.7470588235294109</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P253">
+        <v>72.97</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A254" s="4">
         <v>7</v>
       </c>
@@ -12740,8 +13513,11 @@
       <c r="O254" s="13">
         <v>2.9720279720279725</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P254">
+        <v>56.19</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A255" s="4">
         <v>5</v>
       </c>
@@ -12787,8 +13563,11 @@
       <c r="O255" s="13">
         <v>5.1200000000000002E-2</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P255">
+        <v>54.269999999999996</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A256" s="4">
         <v>5</v>
       </c>
@@ -12834,8 +13613,11 @@
       <c r="O256" s="13">
         <v>1.8409090909090911</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P256">
+        <v>61.949999999999989</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A257" s="4">
         <v>5</v>
       </c>
@@ -12881,8 +13663,11 @@
       <c r="O257" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P257">
+        <v>61.889999999999993</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A258" s="4">
         <v>15</v>
       </c>
@@ -12928,8 +13713,11 @@
       <c r="O258" s="13">
         <v>0.87743732590529255</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P258">
+        <v>69.690000000000012</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A259" s="4">
         <v>17</v>
       </c>
@@ -12975,8 +13763,11 @@
       <c r="O259" s="13">
         <v>62.370235934664244</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P259">
+        <v>72.100000000000009</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A260" s="4">
         <v>2</v>
       </c>
@@ -13022,8 +13813,11 @@
       <c r="O260" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P260">
+        <v>68.44</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A261" s="4">
         <v>13</v>
       </c>
@@ -13069,8 +13863,11 @@
       <c r="O261" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P261">
+        <v>64.460000000000008</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A262" s="4">
         <v>36</v>
       </c>
@@ -13116,8 +13913,11 @@
       <c r="O262" s="13">
         <v>160.91086350974936</v>
       </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P262">
+        <v>87.560000000000016</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A263" s="4">
         <v>19</v>
       </c>
@@ -13163,8 +13963,11 @@
       <c r="O263" s="13">
         <v>0.38522012578616355</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P263">
+        <v>63.44</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A264" s="4">
         <v>8</v>
       </c>
@@ -13210,8 +14013,11 @@
       <c r="O264" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P264">
+        <v>58.080000000000013</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A265" s="4">
         <v>7</v>
       </c>
@@ -13257,8 +14063,11 @@
       <c r="O265" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P265">
+        <v>65.03</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A266" s="4">
         <v>12</v>
       </c>
@@ -13304,8 +14113,11 @@
       <c r="O266" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P266">
+        <v>51.83</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A267" s="4">
         <v>16</v>
       </c>
@@ -13351,8 +14163,11 @@
       <c r="O267" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P267">
+        <v>63.040000000000006</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A268" s="4">
         <v>9</v>
       </c>
@@ -13398,8 +14213,11 @@
       <c r="O268" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P268">
+        <v>54.319999999999993</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A269" s="4">
         <v>27</v>
       </c>
@@ -13445,8 +14263,11 @@
       <c r="O269" s="13">
         <v>0.57722007722007729</v>
       </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P269">
+        <v>65.37</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A270" s="4">
         <v>41</v>
       </c>
@@ -13492,8 +14313,11 @@
       <c r="O270" s="13">
         <v>1.1583011583011584E-2</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P270">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A271" s="4">
         <v>25</v>
       </c>
@@ -13539,8 +14363,11 @@
       <c r="O271" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P271">
+        <v>52.81</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A272" s="4">
         <v>15</v>
       </c>
@@ -13586,8 +14413,11 @@
       <c r="O272" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P272">
+        <v>69.62</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A273" s="4">
         <v>10</v>
       </c>
@@ -13633,8 +14463,11 @@
       <c r="O273" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P273">
+        <v>66.36999999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A274" s="4">
         <v>12</v>
       </c>
@@ -13680,8 +14513,11 @@
       <c r="O274" s="13">
         <v>0.59014423076923073</v>
       </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P274">
+        <v>68.72</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A275" s="4">
         <v>7</v>
       </c>
@@ -13727,8 +14563,11 @@
       <c r="O275" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P275">
+        <v>65.36</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A276" s="4">
         <v>4</v>
       </c>
@@ -13774,8 +14613,11 @@
       <c r="O276" s="13">
         <v>0.3320463320463321</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P276">
+        <v>71.23</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A277" s="4">
         <v>15</v>
       </c>
@@ -13821,8 +14663,11 @@
       <c r="O277" s="13">
         <v>2.4305019305019306</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P277">
+        <v>78.399999999999991</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A278" s="4">
         <v>5</v>
       </c>
@@ -13868,8 +14713,11 @@
       <c r="O278" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P278">
+        <v>65.360000000000014</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A279" s="4">
         <v>8</v>
       </c>
@@ -13915,8 +14763,11 @@
       <c r="O279" s="13">
         <v>2.0377358490566033</v>
       </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P279">
+        <v>66.960000000000008</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A280" s="4">
         <v>6</v>
       </c>
@@ -13962,8 +14813,11 @@
       <c r="O280" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P280">
+        <v>68.929999999999993</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A281" s="4">
         <v>5</v>
       </c>
@@ -14009,8 +14863,11 @@
       <c r="O281" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P281">
+        <v>58.210000000000008</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A282" s="4">
         <v>6</v>
       </c>
@@ -14056,8 +14913,11 @@
       <c r="O282" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P282">
+        <v>63.120000000000005</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A283" s="4">
         <v>7</v>
       </c>
@@ -14103,8 +14963,11 @@
       <c r="O283" s="13">
         <v>0.9871520342612421</v>
       </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P283">
+        <v>70.560000000000016</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A284" s="4">
         <v>10</v>
       </c>
@@ -14150,8 +15013,11 @@
       <c r="O284" s="13">
         <v>10.695652173913041</v>
       </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P284">
+        <v>75.86</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A285" s="4">
         <v>7</v>
       </c>
@@ -14197,8 +15063,11 @@
       <c r="O285" s="13">
         <v>10.963210702341138</v>
       </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P285">
+        <v>73.160000000000011</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A286" s="4">
         <v>14</v>
       </c>
@@ -14244,8 +15113,11 @@
       <c r="O286" s="13">
         <v>2.336188436830835</v>
       </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P286">
+        <v>76.570000000000007</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A287" s="4">
         <v>14</v>
       </c>
@@ -14291,8 +15163,11 @@
       <c r="O287" s="13">
         <v>0.40802675585284282</v>
       </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P287">
+        <v>57.220000000000013</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A288" s="4">
         <v>10</v>
       </c>
@@ -14338,8 +15213,11 @@
       <c r="O288" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P288">
+        <v>61.47999999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A289" s="4">
         <v>10</v>
       </c>
@@ -14385,8 +15263,11 @@
       <c r="O289" s="13">
         <v>0.21627408993576017</v>
       </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P289">
+        <v>57.67</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A290" s="4">
         <v>6</v>
       </c>
@@ -14432,8 +15313,11 @@
       <c r="O290" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P290">
+        <v>60.480000000000004</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A291" s="4">
         <v>11</v>
       </c>
@@ -14479,8 +15363,11 @@
       <c r="O291" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P291">
+        <v>63.25</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A292" s="4">
         <v>12</v>
       </c>
@@ -14526,8 +15413,11 @@
       <c r="O292" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P292">
+        <v>61.989999999999995</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A293" s="4">
         <v>11</v>
       </c>
@@ -14573,8 +15463,11 @@
       <c r="O293" s="13">
         <v>2.1884368308351179</v>
       </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P293">
+        <v>72.52000000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A294" s="4">
         <v>11</v>
       </c>
@@ -14620,8 +15513,11 @@
       <c r="O294" s="13">
         <v>1.1049250535331905</v>
       </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P294">
+        <v>62.59</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A295" s="4">
         <v>4</v>
       </c>
@@ -14667,8 +15563,11 @@
       <c r="O295" s="13">
         <v>3.402569593147752</v>
       </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P295">
+        <v>68.33</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A296" s="4">
         <v>18</v>
       </c>
@@ -14714,8 +15613,11 @@
       <c r="O296" s="13">
         <v>1.1220556745182013</v>
       </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P296">
+        <v>57.17</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A297" s="4">
         <v>4</v>
       </c>
@@ -14761,8 +15663,11 @@
       <c r="O297" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P297">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A298" s="4">
         <v>9</v>
       </c>
@@ -14808,8 +15713,11 @@
       <c r="O298" s="13">
         <v>1.8193641618497109</v>
       </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P298">
+        <v>72.37</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A299" s="4">
         <v>4</v>
       </c>
@@ -14855,8 +15763,11 @@
       <c r="O299" s="13">
         <v>1.8629550321199144</v>
       </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P299">
+        <v>66.600000000000009</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A300" s="4">
         <v>7</v>
       </c>
@@ -14902,8 +15813,11 @@
       <c r="O300" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P300">
+        <v>58.139999999999993</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A301" s="4">
         <v>12</v>
       </c>
@@ -14949,8 +15863,11 @@
       <c r="O301" s="13">
         <v>1.2448979591836735</v>
       </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P301">
+        <v>63.949999999999989</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A302" s="4">
         <v>10</v>
       </c>
@@ -14996,8 +15913,11 @@
       <c r="O302" s="13">
         <v>0.1284796573875803</v>
       </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P302">
+        <v>64.540000000000006</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A303" s="4">
         <v>4</v>
       </c>
@@ -15043,8 +15963,11 @@
       <c r="O303" s="13">
         <v>1.1088435374149659</v>
       </c>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P303">
+        <v>58.06</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A304" s="4">
         <v>3</v>
       </c>
@@ -15090,8 +16013,11 @@
       <c r="O304" s="13">
         <v>2.4566473988439308E-2</v>
       </c>
-    </row>
-    <row r="305" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="P304">
+        <v>62.36</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A305" s="4">
         <v>12</v>
       </c>
@@ -15137,8 +16063,11 @@
       <c r="O305" s="14">
         <v>1.3741496598639455</v>
       </c>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P305">
+        <v>61.069999999999993</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A306" s="4">
         <v>6</v>
       </c>
@@ -15184,8 +16113,11 @@
       <c r="O306" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P306">
+        <v>55.61</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A307" s="4">
         <v>5</v>
       </c>
@@ -15231,8 +16163,11 @@
       <c r="O307" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P307">
+        <v>63.269999999999989</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A308" s="4">
         <v>16</v>
       </c>
@@ -15278,8 +16213,11 @@
       <c r="O308" s="13">
         <v>2.8758029978586723</v>
       </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P308">
+        <v>69.580000000000013</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A309" s="4">
         <v>13</v>
       </c>
@@ -15325,8 +16263,11 @@
       <c r="O309" s="13">
         <v>618.71454219030522</v>
       </c>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P309">
+        <v>67.84</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A310" s="4">
         <v>8</v>
       </c>
@@ -15372,8 +16313,11 @@
       <c r="O310" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P310">
+        <v>60.539999999999992</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A311" s="4">
         <v>8</v>
       </c>
@@ -15419,8 +16363,11 @@
       <c r="O311" s="13">
         <v>0.68497109826589597</v>
       </c>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P311">
+        <v>71.050000000000011</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A312" s="4">
         <v>11</v>
       </c>
@@ -15466,8 +16413,11 @@
       <c r="O312" s="13">
         <v>5.7803468208092491E-3</v>
       </c>
-    </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P312">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A313" s="4">
         <v>11</v>
       </c>
@@ -15513,8 +16463,11 @@
       <c r="O313" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P313">
+        <v>60.489999999999995</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A314" s="4">
         <v>5</v>
       </c>
@@ -15560,8 +16513,11 @@
       <c r="O314" s="13">
         <v>9.5238095238095233E-2</v>
       </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P314">
+        <v>66.709999999999994</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A315" s="4">
         <v>23</v>
       </c>
@@ -15607,8 +16563,11 @@
       <c r="O315" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P315">
+        <v>59.039999999999992</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A316" s="4">
         <v>4</v>
       </c>
@@ -15654,8 +16613,11 @@
       <c r="O316" s="13">
         <v>0.36507936507936511</v>
       </c>
-    </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P316">
+        <v>57.95</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A317" s="4">
         <v>10</v>
       </c>
@@ -15701,8 +16663,11 @@
       <c r="O317" s="13">
         <v>4.0816326530612242E-2</v>
       </c>
-    </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P317">
+        <v>67.09</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A318" s="4">
         <v>68</v>
       </c>
@@ -15748,8 +16713,11 @@
       <c r="O318" s="13">
         <v>1.0202312138728322</v>
       </c>
-    </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P318">
+        <v>77.589999999999989</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A319" s="4">
         <v>10</v>
       </c>
@@ -15795,8 +16763,11 @@
       <c r="O319" s="13">
         <v>1.3356009070294788</v>
       </c>
-    </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P319">
+        <v>60.390000000000015</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A320" s="4">
         <v>9</v>
       </c>
@@ -15842,8 +16813,11 @@
       <c r="O320" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P320">
+        <v>67.25</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A321" s="4">
         <v>7</v>
       </c>
@@ -15889,8 +16863,11 @@
       <c r="O321" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P321">
+        <v>64.27</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A322" s="4">
         <v>9</v>
       </c>
@@ -15936,8 +16913,11 @@
       <c r="O322" s="13">
         <v>0.75722543352601168</v>
       </c>
-    </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P322">
+        <v>66.98</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A323" s="4">
         <v>7</v>
       </c>
@@ -15983,8 +16963,11 @@
       <c r="O323" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P323">
+        <v>61.67</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A324" s="4">
         <v>10</v>
       </c>
@@ -16030,8 +17013,11 @@
       <c r="O324" s="13">
         <v>0.67052023121387283</v>
       </c>
-    </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P324">
+        <v>60.690000000000012</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A325" s="4">
         <v>12</v>
       </c>
@@ -16077,8 +17063,11 @@
       <c r="O325" s="13">
         <v>1.3514739229024944</v>
       </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P325">
+        <v>68.660000000000011</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A326" s="4">
         <v>15</v>
       </c>
@@ -16124,8 +17113,11 @@
       <c r="O326" s="13">
         <v>4.4058956916099774</v>
       </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P326">
+        <v>68.38000000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A327" s="4">
         <v>73</v>
       </c>
@@ -16171,8 +17163,11 @@
       <c r="O327" s="13">
         <v>0.65798045602605859</v>
       </c>
-    </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P327">
+        <v>74.320000000000022</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A328" s="4">
         <v>10</v>
       </c>
@@ -16218,8 +17213,11 @@
       <c r="O328" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P328">
+        <v>68.930000000000007</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A329" s="4">
         <v>10</v>
       </c>
@@ -16265,8 +17263,11 @@
       <c r="O329" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P329">
+        <v>60.25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A330" s="4">
         <v>10</v>
       </c>
@@ -16312,8 +17313,11 @@
       <c r="O330" s="13">
         <v>2.4497607655502387</v>
       </c>
-    </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P330">
+        <v>68.88000000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A331" s="4">
         <v>6</v>
       </c>
@@ -16359,8 +17363,11 @@
       <c r="O331" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P331">
+        <v>53.579999999999991</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A332" s="4">
         <v>11</v>
       </c>
@@ -16406,8 +17413,11 @@
       <c r="O332" s="13">
         <v>0.35406698564593303</v>
       </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P332">
+        <v>64.170000000000016</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A333" s="4">
         <v>49</v>
       </c>
@@ -16453,8 +17463,11 @@
       <c r="O333" s="13">
         <v>0.16028708133971295</v>
       </c>
-    </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P333">
+        <v>59.34</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A334" s="4">
         <v>5</v>
       </c>
@@ -16500,8 +17513,11 @@
       <c r="O334" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P334">
+        <v>63.78</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A335" s="4">
         <v>31</v>
       </c>
@@ -16547,8 +17563,11 @@
       <c r="O335" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P335">
+        <v>68.62</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A336" s="4">
         <v>32</v>
       </c>
@@ -16594,8 +17613,11 @@
       <c r="O336" s="13">
         <v>0.76633986928104592</v>
       </c>
-    </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P336">
+        <v>68.37</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A337" s="4">
         <v>5</v>
       </c>
@@ -16641,8 +17663,11 @@
       <c r="O337" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P337">
+        <v>61.06</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A338" s="4">
         <v>13</v>
       </c>
@@ -16688,8 +17713,11 @@
       <c r="O338" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P338">
+        <v>54.680000000000007</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A339" s="4">
         <v>16</v>
       </c>
@@ -16735,8 +17763,11 @@
       <c r="O339" s="13">
         <v>3.7581699346405237</v>
       </c>
-    </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P339">
+        <v>60.129999999999995</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A340" s="4">
         <v>14</v>
       </c>
@@ -16782,8 +17813,11 @@
       <c r="O340" s="13">
         <v>9.8360655737704902E-2</v>
       </c>
-    </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P340">
+        <v>61.72</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A341" s="4">
         <v>2</v>
       </c>
@@ -16829,8 +17863,11 @@
       <c r="O341" s="13">
         <v>0.63895216400911159</v>
       </c>
-    </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P341">
+        <v>58.559999999999995</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A342" s="4">
         <v>23</v>
       </c>
@@ -16876,8 +17913,11 @@
       <c r="O342" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P342">
+        <v>70.459999999999994</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A343" s="4">
         <v>27</v>
       </c>
@@ -16923,8 +17963,11 @@
       <c r="O343" s="13">
         <v>0.49700598802395213</v>
       </c>
-    </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P343">
+        <v>63.560000000000016</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A344" s="4">
         <v>4</v>
       </c>
@@ -16970,8 +18013,11 @@
       <c r="O344" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P344">
+        <v>61.81</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A345" s="4">
         <v>12</v>
       </c>
@@ -17017,8 +18063,11 @@
       <c r="O345" s="13">
         <v>0.84821428571428559</v>
       </c>
-    </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P345">
+        <v>63.86999999999999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A346" s="4">
         <v>15</v>
       </c>
@@ -17064,8 +18113,11 @@
       <c r="O346" s="13">
         <v>2.5446428571428572</v>
       </c>
-    </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P346">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A347" s="4">
         <v>16</v>
       </c>
@@ -17111,8 +18163,11 @@
       <c r="O347" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P347">
+        <v>59.569999999999993</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A348" s="4">
         <v>153</v>
       </c>
@@ -17158,8 +18213,11 @@
       <c r="O348" s="13">
         <v>0.50306748466257667</v>
       </c>
-    </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P348">
+        <v>71.38</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A349" s="4">
         <v>22</v>
       </c>
@@ -17205,8 +18263,11 @@
       <c r="O349" s="13">
         <v>0.38392857142857145</v>
       </c>
-    </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P349">
+        <v>68.760000000000005</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A350" s="4">
         <v>5</v>
       </c>
@@ -17252,8 +18313,11 @@
       <c r="O350" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P350">
+        <v>59.260000000000005</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A351" s="4">
         <v>19</v>
       </c>
@@ -17299,8 +18363,11 @@
       <c r="O351" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P351">
+        <v>71.829999999999984</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A352" s="4">
         <v>13</v>
       </c>
@@ -17346,8 +18413,11 @@
       <c r="O352" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P352">
+        <v>70.92</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A353" s="4">
         <v>20</v>
       </c>
@@ -17393,8 +18463,11 @@
       <c r="O353" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P353">
+        <v>59.16</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A354" s="4">
         <v>50</v>
       </c>
@@ -17440,8 +18513,11 @@
       <c r="O354" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P354">
+        <v>72.259999999999991</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A355" s="4">
         <v>9</v>
       </c>
@@ -17487,8 +18563,11 @@
       <c r="O355" s="13">
         <v>0.28834355828220853</v>
       </c>
-    </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P355">
+        <v>59.459999999999994</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A356" s="4">
         <v>17</v>
       </c>
@@ -17534,8 +18613,11 @@
       <c r="O356" s="13">
         <v>2.2822085889570554</v>
       </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P356">
+        <v>70.710000000000008</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A357" s="4">
         <v>16</v>
       </c>
@@ -17581,8 +18663,11 @@
       <c r="O357" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P357">
+        <v>67.86</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A358" s="4">
         <v>15</v>
       </c>
@@ -17628,8 +18713,11 @@
       <c r="O358" s="13">
         <v>8.5889570552147243E-2</v>
       </c>
-    </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P358">
+        <v>65.75</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A359" s="4">
         <v>25</v>
       </c>
@@ -17675,8 +18763,11 @@
       <c r="O359" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P359">
+        <v>61.86</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A360" s="4">
         <v>8</v>
       </c>
@@ -17722,8 +18813,11 @@
       <c r="O360" s="13">
         <v>2.1963190184049082</v>
       </c>
-    </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P360">
+        <v>56.19</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A361" s="4">
         <v>7</v>
       </c>
@@ -17769,8 +18863,11 @@
       <c r="O361" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P361">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A362" s="4">
         <v>9</v>
       </c>
@@ -17816,8 +18913,11 @@
       <c r="O362" s="13">
         <v>4.4046052631578947</v>
       </c>
-    </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P362">
+        <v>63.099999999999994</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A363" s="4">
         <v>5</v>
       </c>
@@ -17863,8 +18963,11 @@
       <c r="O363" s="13">
         <v>1.5671641791044779</v>
       </c>
-    </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P363">
+        <v>57.899999999999991</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A364" s="4">
         <v>7</v>
       </c>
@@ -17910,8 +19013,11 @@
       <c r="O364" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P364">
+        <v>59.55</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A365" s="4">
         <v>37</v>
       </c>
@@ -17957,8 +19063,11 @@
       <c r="O365" s="13">
         <v>1.5657894736842104</v>
       </c>
-    </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P365">
+        <v>65.720000000000013</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A366" s="4">
         <v>6</v>
       </c>
@@ -18004,8 +19113,11 @@
       <c r="O366" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P366">
+        <v>53.269999999999996</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A367" s="4">
         <v>8</v>
       </c>
@@ -18051,8 +19163,11 @@
       <c r="O367" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P367">
+        <v>58.589999999999989</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A368" s="4">
         <v>10</v>
       </c>
@@ -18098,8 +19213,11 @@
       <c r="O368" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P368">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A369" s="4">
         <v>12</v>
       </c>
@@ -18145,8 +19263,11 @@
       <c r="O369" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P369">
+        <v>56.61</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A370" s="4">
         <v>5</v>
       </c>
@@ -18192,8 +19313,11 @@
       <c r="O370" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P370">
+        <v>56.970000000000013</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A371" s="4">
         <v>9</v>
       </c>
@@ -18239,8 +19363,11 @@
       <c r="O371" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P371">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A372" s="4">
         <v>9</v>
       </c>
@@ -18286,8 +19413,11 @@
       <c r="O372" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P372">
+        <v>54.150000000000006</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A373" s="4">
         <v>22</v>
       </c>
@@ -18333,8 +19463,11 @@
       <c r="O373" s="13">
         <v>14.352941176470589</v>
       </c>
-    </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P373">
+        <v>74.220000000000013</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A374" s="4">
         <v>4</v>
       </c>
@@ -18380,8 +19513,11 @@
       <c r="O374" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P374">
+        <v>60.870000000000005</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A375" s="4">
         <v>11</v>
       </c>
@@ -18427,8 +19563,11 @@
       <c r="O375" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P375">
+        <v>60.73</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A376" s="4">
         <v>48</v>
       </c>
@@ -18474,8 +19613,11 @@
       <c r="O376" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P376">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A377" s="4">
         <v>18</v>
       </c>
@@ -18521,8 +19663,11 @@
       <c r="O377" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P377">
+        <v>57.319999999999993</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A378" s="4">
         <v>8</v>
       </c>
@@ -18568,8 +19713,11 @@
       <c r="O378" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P378">
+        <v>54.050000000000004</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A379" s="4">
         <v>16</v>
       </c>
@@ -18615,8 +19763,11 @@
       <c r="O379" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P379">
+        <v>61.27</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A380" s="4">
         <v>16</v>
       </c>
@@ -18662,8 +19813,11 @@
       <c r="O380" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="P380">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A381" s="4">
         <v>12</v>
       </c>
@@ -18709,8 +19863,11 @@
       <c r="O381" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P381">
+        <v>51.97</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A382" s="4">
         <v>7</v>
       </c>
@@ -18756,8 +19913,11 @@
       <c r="O382" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P382">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A383" s="4">
         <v>20</v>
       </c>
@@ -18803,8 +19963,11 @@
       <c r="O383" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P383">
+        <v>60.790000000000006</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A384" s="4">
         <v>18</v>
       </c>
@@ -18850,8 +20013,11 @@
       <c r="O384" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P384">
+        <v>61.080000000000013</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A385" s="4">
         <v>6</v>
       </c>
@@ -18897,8 +20063,11 @@
       <c r="O385" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P385">
+        <v>52.38</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A386" s="4">
         <v>6</v>
       </c>
@@ -18944,8 +20113,11 @@
       <c r="O386" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P386">
+        <v>59.66</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A387" s="4">
         <v>6</v>
       </c>
@@ -18991,8 +20163,11 @@
       <c r="O387" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P387">
+        <v>47.09</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A388" s="4">
         <v>11</v>
       </c>
@@ -19038,8 +20213,11 @@
       <c r="O388" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P388">
+        <v>69.140000000000015</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A389" s="4">
         <v>5</v>
       </c>
@@ -19085,8 +20263,11 @@
       <c r="O389" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P389">
+        <v>47.68</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A390" s="4">
         <v>17</v>
       </c>
@@ -19132,8 +20313,11 @@
       <c r="O390" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P390">
+        <v>62.82</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A391" s="4">
         <v>9</v>
       </c>
@@ -19179,8 +20363,11 @@
       <c r="O391" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P391">
+        <v>63.400000000000006</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A392" s="4">
         <v>13</v>
       </c>
@@ -19226,8 +20413,11 @@
       <c r="O392" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P392">
+        <v>62.95</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A393" s="4">
         <v>11</v>
       </c>
@@ -19273,8 +20463,11 @@
       <c r="O393" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P393">
+        <v>54.430000000000007</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A394" s="4">
         <v>7</v>
       </c>
@@ -19320,8 +20513,11 @@
       <c r="O394" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P394">
+        <v>65.600000000000009</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A395" s="4">
         <v>11</v>
       </c>
@@ -19367,8 +20563,11 @@
       <c r="O395" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P395">
+        <v>59.36</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A396" s="4">
         <v>22</v>
       </c>
@@ -19414,8 +20613,11 @@
       <c r="O396" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P396">
+        <v>69.52000000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A397" s="4">
         <v>9</v>
       </c>
@@ -19461,8 +20663,11 @@
       <c r="O397" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P397">
+        <v>56.31</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A398" s="4">
         <v>6</v>
       </c>
@@ -19508,8 +20713,11 @@
       <c r="O398" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P398">
+        <v>61.06</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A399" s="4">
         <v>10</v>
       </c>
@@ -19555,8 +20763,11 @@
       <c r="O399" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P399">
+        <v>58.120000000000005</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A400" s="4">
         <v>18</v>
       </c>
@@ -19602,8 +20813,11 @@
       <c r="O400" s="13">
         <v>22.628571428571433</v>
       </c>
-    </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P400">
+        <v>67.47</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A401" s="4">
         <v>10</v>
       </c>
@@ -19649,8 +20863,11 @@
       <c r="O401" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P401">
+        <v>69.739999999999995</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A402" s="4">
         <v>8</v>
       </c>
@@ -19696,8 +20913,11 @@
       <c r="O402" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P402">
+        <v>55.800000000000004</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A403" s="4">
         <v>8</v>
       </c>
@@ -19743,8 +20963,11 @@
       <c r="O403" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P403">
+        <v>60.96</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A404" s="4">
         <v>11</v>
       </c>
@@ -19790,8 +21013,11 @@
       <c r="O404" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P404">
+        <v>59.349999999999994</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A405" s="4">
         <v>10</v>
       </c>
@@ -19837,8 +21063,11 @@
       <c r="O405" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P405">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A406" s="4">
         <v>4</v>
       </c>
@@ -19884,8 +21113,11 @@
       <c r="O406" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P406">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A407" s="4">
         <v>13</v>
       </c>
@@ -19931,8 +21163,11 @@
       <c r="O407" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P407">
+        <v>64.510000000000005</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A408" s="4">
         <v>8</v>
       </c>
@@ -19978,8 +21213,11 @@
       <c r="O408" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P408">
+        <v>64.38</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A409" s="4">
         <v>9</v>
       </c>
@@ -20025,8 +21263,11 @@
       <c r="O409" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P409">
+        <v>51.510000000000005</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A410" s="4">
         <v>3</v>
       </c>
@@ -20072,8 +21313,11 @@
       <c r="O410" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P410">
+        <v>52.70000000000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A411" s="4">
         <v>37</v>
       </c>
@@ -20119,8 +21363,11 @@
       <c r="O411" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P411">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A412" s="4">
         <v>5</v>
       </c>
@@ -20166,8 +21413,11 @@
       <c r="O412" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P412">
+        <v>62.24</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A413" s="4">
         <v>28</v>
       </c>
@@ -20213,8 +21463,11 @@
       <c r="O413" s="13">
         <v>7.6923076923076927E-2</v>
       </c>
-    </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P413">
+        <v>68.260000000000005</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A414" s="4">
         <v>168</v>
       </c>
@@ -20260,8 +21513,11 @@
       <c r="O414" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P414">
+        <v>61.74</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A415" s="4">
         <v>5</v>
       </c>
@@ -20307,8 +21563,11 @@
       <c r="O415" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P415">
+        <v>62.599999999999994</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A416" s="4">
         <v>5</v>
       </c>
@@ -20354,8 +21613,11 @@
       <c r="O416" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P416">
+        <v>65.16</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A417" s="4">
         <v>17</v>
       </c>
@@ -20401,8 +21663,11 @@
       <c r="O417" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P417">
+        <v>68.010000000000005</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A418" s="4">
         <v>16</v>
       </c>
@@ -20448,8 +21713,11 @@
       <c r="O418" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P418">
+        <v>64.539999999999992</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A419" s="4">
         <v>5</v>
       </c>
@@ -20495,8 +21763,11 @@
       <c r="O419" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P419">
+        <v>56.02000000000001</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A420" s="4">
         <v>7</v>
       </c>
@@ -20542,8 +21813,11 @@
       <c r="O420" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P420">
+        <v>67.210000000000008</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A421" s="4">
         <v>20</v>
       </c>
@@ -20589,8 +21863,11 @@
       <c r="O421" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P421">
+        <v>65.919999999999987</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A422" s="4">
         <v>17</v>
       </c>
@@ -20636,8 +21913,11 @@
       <c r="O422" s="13">
         <v>14.230769230769232</v>
       </c>
-    </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P422">
+        <v>70.429999999999993</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A423" s="4">
         <v>20</v>
       </c>
@@ -20683,8 +21963,11 @@
       <c r="O423" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P423">
+        <v>63.94</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A424" s="4">
         <v>2</v>
       </c>
@@ -20730,8 +22013,11 @@
       <c r="O424" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P424">
+        <v>46.730000000000004</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A425" s="4">
         <v>5</v>
       </c>
@@ -20777,8 +22063,11 @@
       <c r="O425" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P425">
+        <v>50.499999999999993</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A426" s="4">
         <v>15</v>
       </c>
@@ -20824,8 +22113,11 @@
       <c r="O426" s="13">
         <v>0.63666121112929619</v>
       </c>
-    </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P426">
+        <v>60.86</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A427" s="4">
         <v>13</v>
       </c>
@@ -20871,8 +22163,11 @@
       <c r="O427" s="13">
         <v>3.094616639477977</v>
       </c>
-    </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P427">
+        <v>72.730000000000018</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A428" s="4">
         <v>17</v>
       </c>
@@ -20918,8 +22213,11 @@
       <c r="O428" s="13">
         <v>5.1060358890701458</v>
       </c>
-    </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P428">
+        <v>67.95</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A429" s="4">
         <v>29</v>
       </c>
@@ -20965,8 +22263,11 @@
       <c r="O429" s="13">
         <v>2.9065190651906518</v>
       </c>
-    </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P429">
+        <v>73.679999999999993</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A430" s="4">
         <v>61</v>
       </c>
@@ -21012,8 +22313,11 @@
       <c r="O430" s="13">
         <v>1.9347826086956526</v>
       </c>
-    </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P430">
+        <v>69.28</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A431" s="4">
         <v>11</v>
       </c>
@@ -21059,8 +22363,11 @@
       <c r="O431" s="13">
         <v>1.8991389913899135</v>
       </c>
-    </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P431">
+        <v>73.819999999999993</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A432" s="4">
         <v>9</v>
       </c>
@@ -21106,8 +22413,11 @@
       <c r="O432" s="13">
         <v>10.346863468634686</v>
       </c>
-    </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P432">
+        <v>69.52000000000001</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A433" s="4">
         <v>77</v>
       </c>
@@ -21153,8 +22463,11 @@
       <c r="O433" s="13">
         <v>0.83517835178351763</v>
       </c>
-    </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P433">
+        <v>69.180000000000007</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A434" s="4">
         <v>47</v>
       </c>
@@ -21200,8 +22513,11 @@
       <c r="O434" s="13">
         <v>6.6420664206642069E-2</v>
       </c>
-    </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P434">
+        <v>61.019999999999996</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A435" s="4">
         <v>13</v>
       </c>
@@ -21247,8 +22563,11 @@
       <c r="O435" s="13">
         <v>3.9397293972939726</v>
       </c>
-    </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P435">
+        <v>62.099999999999994</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A436" s="4">
         <v>29</v>
       </c>
@@ -21294,8 +22613,11 @@
       <c r="O436" s="13">
         <v>2.915129151291513</v>
       </c>
-    </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P436">
+        <v>86.690000000000012</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A437" s="4">
         <v>60</v>
       </c>
@@ -21341,8 +22663,11 @@
       <c r="O437" s="13">
         <v>4.551045510455104E-2</v>
       </c>
-    </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P437">
+        <v>65.390000000000015</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A438" s="4">
         <v>7</v>
       </c>
@@ -21388,8 +22713,11 @@
       <c r="O438" s="13">
         <v>16.56969696969697</v>
       </c>
-    </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P438">
+        <v>73.69</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A439" s="4">
         <v>25</v>
       </c>
@@ -21435,8 +22763,11 @@
       <c r="O439" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P439">
+        <v>77.47999999999999</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A440" s="4">
         <v>9</v>
       </c>
@@ -21482,8 +22813,11 @@
       <c r="O440" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P440">
+        <v>65.010000000000019</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A441" s="4">
         <v>70</v>
       </c>
@@ -21529,8 +22863,11 @@
       <c r="O441" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P441">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A442" s="4">
         <v>5</v>
       </c>
@@ -21576,8 +22913,11 @@
       <c r="O442" s="13">
         <v>2.0461285008237233</v>
       </c>
-    </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P442">
+        <v>66.92</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A443" s="4">
         <v>24</v>
       </c>
@@ -21623,8 +22963,11 @@
       <c r="O443" s="13">
         <v>4.5601317957166385</v>
       </c>
-    </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P443">
+        <v>81.320000000000007</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A444" s="4">
         <v>25</v>
       </c>
@@ -21670,8 +23013,11 @@
       <c r="O444" s="13">
         <v>34.852398523985237</v>
       </c>
-    </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P444">
+        <v>79.910000000000025</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A445" s="4">
         <v>37</v>
       </c>
@@ -21717,8 +23063,11 @@
       <c r="O445" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P445">
+        <v>73.010000000000005</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A446" s="4">
         <v>46</v>
       </c>
@@ -21764,8 +23113,11 @@
       <c r="O446" s="13">
         <v>0.95757575757575775</v>
       </c>
-    </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P446">
+        <v>73.590000000000018</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A447" s="4">
         <v>25</v>
       </c>
@@ -21811,8 +23163,11 @@
       <c r="O447" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P447">
+        <v>61.470000000000013</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A448" s="4">
         <v>121</v>
       </c>
@@ -21858,8 +23213,11 @@
       <c r="O448" s="13">
         <v>0.35337726523887963</v>
       </c>
-    </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P448">
+        <v>77.160000000000011</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A449" s="4">
         <v>12</v>
       </c>
@@ -21905,8 +23263,11 @@
       <c r="O449" s="13">
         <v>3.87149917627677E-2</v>
       </c>
-    </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P449">
+        <v>57.129999999999995</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A450" s="4">
         <v>16</v>
       </c>
@@ -21952,8 +23313,11 @@
       <c r="O450" s="13">
         <v>2.0494233937397035</v>
       </c>
-    </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P450">
+        <v>71.86999999999999</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A451" s="4">
         <v>15</v>
       </c>
@@ -21999,8 +23363,11 @@
       <c r="O451" s="13">
         <v>5.2792421746293243</v>
       </c>
-    </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P451">
+        <v>82.45</v>
+      </c>
+    </row>
+    <row r="452" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A452" s="4">
         <v>15</v>
       </c>
@@ -22046,8 +23413,11 @@
       <c r="O452" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P452">
+        <v>64.42</v>
+      </c>
+    </row>
+    <row r="453" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A453" s="4">
         <v>113</v>
       </c>
@@ -22093,8 +23463,11 @@
       <c r="O453" s="13">
         <v>1.2858319604612849</v>
       </c>
-    </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P453">
+        <v>76.23</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A454" s="4">
         <v>10</v>
       </c>
@@ -22140,8 +23513,11 @@
       <c r="O454" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P454">
+        <v>63.809999999999995</v>
+      </c>
+    </row>
+    <row r="455" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A455" s="4">
         <v>5</v>
       </c>
@@ -22187,8 +23563,11 @@
       <c r="O455" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P455">
+        <v>60.03</v>
+      </c>
+    </row>
+    <row r="456" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A456" s="4">
         <v>6</v>
       </c>
@@ -22234,8 +23613,11 @@
       <c r="O456" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="P456">
+        <v>59.070000000000014</v>
+      </c>
+    </row>
+    <row r="457" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A457" s="4">
         <v>3</v>
       </c>
@@ -22281,8 +23663,11 @@
       <c r="O457" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P457">
+        <v>53.66</v>
+      </c>
+    </row>
+    <row r="458" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A458" s="4">
         <v>5</v>
       </c>
@@ -22328,8 +23713,11 @@
       <c r="O458" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P458">
+        <v>60.44</v>
+      </c>
+    </row>
+    <row r="459" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A459" s="4">
         <v>3</v>
       </c>
@@ -22375,8 +23763,11 @@
       <c r="O459" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P459">
+        <v>54.439999999999991</v>
+      </c>
+    </row>
+    <row r="460" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A460" s="4">
         <v>17</v>
       </c>
@@ -22422,8 +23813,11 @@
       <c r="O460" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P460">
+        <v>71.010000000000019</v>
+      </c>
+    </row>
+    <row r="461" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A461" s="4">
         <v>6</v>
       </c>
@@ -22469,8 +23863,11 @@
       <c r="O461" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P461">
+        <v>54.259999999999991</v>
+      </c>
+    </row>
+    <row r="462" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A462" s="4">
         <v>16</v>
       </c>
@@ -22516,8 +23913,11 @@
       <c r="O462" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P462">
+        <v>61.180000000000007</v>
+      </c>
+    </row>
+    <row r="463" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A463" s="4">
         <v>9</v>
       </c>
@@ -22563,8 +23963,11 @@
       <c r="O463" s="13">
         <v>8.1620689655172427</v>
       </c>
-    </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P463">
+        <v>75.730000000000018</v>
+      </c>
+    </row>
+    <row r="464" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A464" s="4">
         <v>12</v>
       </c>
@@ -22610,8 +24013,11 @@
       <c r="O464" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P464">
+        <v>66.13000000000001</v>
+      </c>
+    </row>
+    <row r="465" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A465" s="4">
         <v>36</v>
       </c>
@@ -22657,8 +24063,11 @@
       <c r="O465" s="13">
         <v>2.0206896551724136</v>
       </c>
-    </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P465">
+        <v>69.470000000000013</v>
+      </c>
+    </row>
+    <row r="466" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A466" s="4">
         <v>10</v>
       </c>
@@ -22704,8 +24113,11 @@
       <c r="O466" s="13">
         <v>0.77241379310344827</v>
       </c>
-    </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P466">
+        <v>70.15000000000002</v>
+      </c>
+    </row>
+    <row r="467" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A467" s="4">
         <v>14</v>
       </c>
@@ -22751,8 +24163,11 @@
       <c r="O467" s="13">
         <v>1.6654366543665431</v>
       </c>
-    </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P467">
+        <v>74.120000000000033</v>
+      </c>
+    </row>
+    <row r="468" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A468" s="4">
         <v>28</v>
       </c>
@@ -22798,8 +24213,11 @@
       <c r="O468" s="13">
         <v>1.3566721581548598</v>
       </c>
-    </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P468">
+        <v>75.730000000000018</v>
+      </c>
+    </row>
+    <row r="469" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A469" s="4">
         <v>12</v>
       </c>
@@ -22845,8 +24263,11 @@
       <c r="O469" s="13">
         <v>8.0620689655172413</v>
       </c>
-    </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P469">
+        <v>72.56</v>
+      </c>
+    </row>
+    <row r="470" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A470" s="4">
         <v>4</v>
       </c>
@@ -22892,8 +24313,11 @@
       <c r="O470" s="13">
         <v>4.0697115384615383</v>
       </c>
-    </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P470">
+        <v>64.11999999999999</v>
+      </c>
+    </row>
+    <row r="471" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A471" s="4">
         <v>80</v>
       </c>
@@ -22939,8 +24363,11 @@
       <c r="O471" s="13">
         <v>161.87769784172662</v>
       </c>
-    </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P471">
+        <v>80.40000000000002</v>
+      </c>
+    </row>
+    <row r="472" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A472" s="4">
         <v>30</v>
       </c>
@@ -22986,8 +24413,11 @@
       <c r="O472" s="13">
         <v>1.4038461538461537</v>
       </c>
-    </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P472">
+        <v>72.33</v>
+      </c>
+    </row>
+    <row r="473" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A473" s="4">
         <v>3</v>
       </c>
@@ -23033,8 +24463,11 @@
       <c r="O473" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P473">
+        <v>60.21</v>
+      </c>
+    </row>
+    <row r="474" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A474" s="4">
         <v>11</v>
       </c>
@@ -23080,8 +24513,11 @@
       <c r="O474" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P474">
+        <v>60.21</v>
+      </c>
+    </row>
+    <row r="475" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A475" s="4">
         <v>26</v>
       </c>
@@ -23127,8 +24563,11 @@
       <c r="O475" s="13">
         <v>12.569536423841061</v>
       </c>
-    </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P475">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="476" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A476" s="4">
         <v>46</v>
       </c>
@@ -23174,8 +24613,11 @@
       <c r="O476" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P476">
+        <v>67.86</v>
+      </c>
+    </row>
+    <row r="477" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A477" s="4">
         <v>12</v>
       </c>
@@ -23221,8 +24663,11 @@
       <c r="O477" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P477">
+        <v>71.850000000000009</v>
+      </c>
+    </row>
+    <row r="478" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A478" s="4">
         <v>8</v>
       </c>
@@ -23268,8 +24713,11 @@
       <c r="O478" s="13">
         <v>24.033112582781456</v>
       </c>
-    </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P478">
+        <v>66.240000000000009</v>
+      </c>
+    </row>
+    <row r="479" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A479" s="4">
         <v>32</v>
       </c>
@@ -23315,8 +24763,11 @@
       <c r="O479" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P479">
+        <v>64.289999999999992</v>
+      </c>
+    </row>
+    <row r="480" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A480" s="4">
         <v>2</v>
       </c>
@@ -23362,8 +24813,11 @@
       <c r="O480" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P480">
+        <v>55.470000000000006</v>
+      </c>
+    </row>
+    <row r="481" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A481" s="4">
         <v>3</v>
       </c>
@@ -23409,8 +24863,11 @@
       <c r="O481" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P481">
+        <v>53.069999999999993</v>
+      </c>
+    </row>
+    <row r="482" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A482" s="4">
         <v>60</v>
       </c>
@@ -23456,8 +24913,11 @@
       <c r="O482" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P482">
+        <v>69.56</v>
+      </c>
+    </row>
+    <row r="483" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A483" s="4">
         <v>3</v>
       </c>
@@ -23503,8 +24963,11 @@
       <c r="O483" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P483">
+        <v>51.900000000000006</v>
+      </c>
+    </row>
+    <row r="484" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A484" s="4">
         <v>5</v>
       </c>
@@ -23550,8 +25013,11 @@
       <c r="O484" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P484">
+        <v>49.519999999999989</v>
+      </c>
+    </row>
+    <row r="485" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A485" s="4">
         <v>9</v>
       </c>
@@ -23597,8 +25063,11 @@
       <c r="O485" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P485">
+        <v>60.960000000000008</v>
+      </c>
+    </row>
+    <row r="486" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A486" s="4">
         <v>3</v>
       </c>
@@ -23644,8 +25113,11 @@
       <c r="O486" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P486">
+        <v>58.59</v>
+      </c>
+    </row>
+    <row r="487" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A487" s="4">
         <v>3</v>
       </c>
@@ -23691,8 +25163,11 @@
       <c r="O487" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P487">
+        <v>58.490000000000009</v>
+      </c>
+    </row>
+    <row r="488" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A488" s="4">
         <v>8</v>
       </c>
@@ -23738,8 +25213,11 @@
       <c r="O488" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P488">
+        <v>66.180000000000007</v>
+      </c>
+    </row>
+    <row r="489" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A489" s="4">
         <v>8</v>
       </c>
@@ -23785,8 +25263,11 @@
       <c r="O489" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P489">
+        <v>58.140000000000015</v>
+      </c>
+    </row>
+    <row r="490" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A490" s="4">
         <v>10</v>
       </c>
@@ -23832,8 +25313,11 @@
       <c r="O490" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P490">
+        <v>68.41</v>
+      </c>
+    </row>
+    <row r="491" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A491" s="4">
         <v>15</v>
       </c>
@@ -23879,8 +25363,11 @@
       <c r="O491" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P491">
+        <v>64.460000000000008</v>
+      </c>
+    </row>
+    <row r="492" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A492" s="4">
         <v>43</v>
       </c>
@@ -23926,8 +25413,11 @@
       <c r="O492" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P492">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A493" s="4">
         <v>15</v>
       </c>
@@ -23973,8 +25463,11 @@
       <c r="O493" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P493">
+        <v>71.52000000000001</v>
+      </c>
+    </row>
+    <row r="494" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A494" s="4">
         <v>140</v>
       </c>
@@ -24020,8 +25513,11 @@
       <c r="O494" s="13">
         <v>2.7789757412398921</v>
       </c>
-    </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P494">
+        <v>70.349999999999994</v>
+      </c>
+    </row>
+    <row r="495" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A495" s="4">
         <v>18</v>
       </c>
@@ -24067,8 +25563,11 @@
       <c r="O495" s="13">
         <v>1.9595687331536389</v>
       </c>
-    </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P495">
+        <v>73.490000000000023</v>
+      </c>
+    </row>
+    <row r="496" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A496" s="4">
         <v>217</v>
       </c>
@@ -24114,8 +25613,11 @@
       <c r="O496" s="13">
         <v>2.894878706199461</v>
       </c>
-    </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P496">
+        <v>76.720000000000013</v>
+      </c>
+    </row>
+    <row r="497" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A497" s="4">
         <v>110</v>
       </c>
@@ -24161,8 +25663,11 @@
       <c r="O497" s="13">
         <v>4.9622641509433967</v>
       </c>
-    </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P497">
+        <v>79.140000000000015</v>
+      </c>
+    </row>
+    <row r="498" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A498" s="4">
         <v>9</v>
       </c>
@@ -24208,8 +25713,11 @@
       <c r="O498" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P498">
+        <v>69.87</v>
+      </c>
+    </row>
+    <row r="499" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A499" s="4">
         <v>2</v>
       </c>
@@ -24255,8 +25763,11 @@
       <c r="O499" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P499">
+        <v>49.659999999999989</v>
+      </c>
+    </row>
+    <row r="500" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A500" s="4">
         <v>13</v>
       </c>
@@ -24302,8 +25813,11 @@
       <c r="O500" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P500">
+        <v>66.290000000000006</v>
+      </c>
+    </row>
+    <row r="501" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A501" s="4">
         <v>18</v>
       </c>
@@ -24349,8 +25863,11 @@
       <c r="O501" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P501">
+        <v>67.390000000000015</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A502" s="4">
         <v>27</v>
       </c>
@@ -24396,8 +25913,11 @@
       <c r="O502" s="13">
         <v>13.035040431266848</v>
       </c>
-    </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P502">
+        <v>75.260000000000005</v>
+      </c>
+    </row>
+    <row r="503" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A503" s="4">
         <v>90</v>
       </c>
@@ -24443,8 +25963,11 @@
       <c r="O503" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P503">
+        <v>63.319999999999993</v>
+      </c>
+    </row>
+    <row r="504" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A504" s="4">
         <v>8</v>
       </c>
@@ -24490,8 +26013,11 @@
       <c r="O504" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P504">
+        <v>66.08</v>
+      </c>
+    </row>
+    <row r="505" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A505" s="4">
         <v>16</v>
       </c>
@@ -24537,8 +26063,11 @@
       <c r="O505" s="13">
         <v>3.0381443298969071</v>
       </c>
-    </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P505">
+        <v>78.720000000000013</v>
+      </c>
+    </row>
+    <row r="506" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A506" s="4">
         <v>4</v>
       </c>
@@ -24584,8 +26113,11 @@
       <c r="O506" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P506">
+        <v>64.86</v>
+      </c>
+    </row>
+    <row r="507" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A507" s="4">
         <v>20</v>
       </c>
@@ -24631,8 +26163,11 @@
       <c r="O507" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P507">
+        <v>62.91</v>
+      </c>
+    </row>
+    <row r="508" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A508" s="4">
         <v>13</v>
       </c>
@@ -24678,8 +26213,11 @@
       <c r="O508" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P508">
+        <v>71.55</v>
+      </c>
+    </row>
+    <row r="509" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A509" s="4">
         <v>5</v>
       </c>
@@ -24725,8 +26263,11 @@
       <c r="O509" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P509">
+        <v>63.42</v>
+      </c>
+    </row>
+    <row r="510" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A510" s="4">
         <v>7</v>
       </c>
@@ -24772,8 +26313,11 @@
       <c r="O510" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P510">
+        <v>62.23</v>
+      </c>
+    </row>
+    <row r="511" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A511" s="4">
         <v>15</v>
       </c>
@@ -24819,8 +26363,11 @@
       <c r="O511" s="13">
         <v>0.4470924690181125</v>
       </c>
-    </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P511">
+        <v>69.679999999999993</v>
+      </c>
+    </row>
+    <row r="512" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A512" s="4">
         <v>40</v>
       </c>
@@ -24866,8 +26413,11 @@
       <c r="O512" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P512">
+        <v>65.61</v>
+      </c>
+    </row>
+    <row r="513" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A513" s="4">
         <v>9</v>
       </c>
@@ -24913,8 +26463,11 @@
       <c r="O513" s="13">
         <v>0.53765490943755967</v>
       </c>
-    </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P513">
+        <v>78.240000000000009</v>
+      </c>
+    </row>
+    <row r="514" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A514" s="4">
         <v>4</v>
       </c>
@@ -24960,8 +26513,11 @@
       <c r="O514" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P514">
+        <v>58.199999999999996</v>
+      </c>
+    </row>
+    <row r="515" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A515" s="4">
         <v>7</v>
       </c>
@@ -25007,8 +26563,11 @@
       <c r="O515" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P515">
+        <v>47.900000000000006</v>
+      </c>
+    </row>
+    <row r="516" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A516" s="4">
         <v>23</v>
       </c>
@@ -25053,6 +26612,2609 @@
       </c>
       <c r="O516" s="13">
         <v>0</v>
+      </c>
+      <c r="P516">
+        <v>59.92</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P517" s="15">
+        <v>59.679999999999993</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P518" s="15">
+        <v>70.36</v>
+      </c>
+    </row>
+    <row r="519" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P519" s="15">
+        <v>71.67</v>
+      </c>
+    </row>
+    <row r="520" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P520" s="15">
+        <v>72.350000000000009</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P521" s="15">
+        <v>84.59</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P522" s="15">
+        <v>75.820000000000022</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P523" s="15">
+        <v>73.12</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P524" s="15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P525" s="15">
+        <v>62.879999999999995</v>
+      </c>
+    </row>
+    <row r="526" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P526" s="15">
+        <v>67.759999999999991</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P527" s="15">
+        <v>67.550000000000011</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P528" s="15">
+        <v>71.09</v>
+      </c>
+    </row>
+    <row r="529" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P529" s="15">
+        <v>84.560000000000016</v>
+      </c>
+    </row>
+    <row r="530" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P530" s="15">
+        <v>68.92</v>
+      </c>
+    </row>
+    <row r="531" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P531" s="15">
+        <v>82.95</v>
+      </c>
+    </row>
+    <row r="532" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P532" s="15">
+        <v>76.410000000000011</v>
+      </c>
+    </row>
+    <row r="533" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P533" s="15">
+        <v>66.28</v>
+      </c>
+    </row>
+    <row r="534" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P534" s="15">
+        <v>80.739999999999995</v>
+      </c>
+    </row>
+    <row r="535" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P535" s="15">
+        <v>65.84</v>
+      </c>
+    </row>
+    <row r="536" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P536" s="15">
+        <v>68.210000000000008</v>
+      </c>
+    </row>
+    <row r="537" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P537" s="15">
+        <v>68.27</v>
+      </c>
+    </row>
+    <row r="538" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P538" s="15">
+        <v>73.760000000000005</v>
+      </c>
+    </row>
+    <row r="539" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P539" s="15">
+        <v>70.95</v>
+      </c>
+    </row>
+    <row r="540" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P540" s="15">
+        <v>58.52000000000001</v>
+      </c>
+    </row>
+    <row r="541" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P541" s="15">
+        <v>59.320000000000007</v>
+      </c>
+    </row>
+    <row r="542" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P542" s="15">
+        <v>79.650000000000006</v>
+      </c>
+    </row>
+    <row r="543" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P543" s="15">
+        <v>74.59</v>
+      </c>
+    </row>
+    <row r="544" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P544" s="15">
+        <v>73.330000000000013</v>
+      </c>
+    </row>
+    <row r="545" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P545" s="15">
+        <v>55.62</v>
+      </c>
+    </row>
+    <row r="546" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P546" s="15">
+        <v>60.160000000000004</v>
+      </c>
+    </row>
+    <row r="547" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P547" s="15">
+        <v>62.31</v>
+      </c>
+    </row>
+    <row r="548" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P548" s="15">
+        <v>61.250000000000014</v>
+      </c>
+    </row>
+    <row r="549" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P549" s="15">
+        <v>59.210000000000008</v>
+      </c>
+    </row>
+    <row r="550" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P550" s="15">
+        <v>78.309999999999988</v>
+      </c>
+    </row>
+    <row r="551" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P551" s="15">
+        <v>77.61999999999999</v>
+      </c>
+    </row>
+    <row r="552" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P552" s="15">
+        <v>66.339999999999989</v>
+      </c>
+    </row>
+    <row r="553" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P553" s="15">
+        <v>65.960000000000008</v>
+      </c>
+    </row>
+    <row r="554" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P554" s="15">
+        <v>68.790000000000006</v>
+      </c>
+    </row>
+    <row r="555" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P555" s="15">
+        <v>75.100000000000009</v>
+      </c>
+    </row>
+    <row r="556" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P556" s="15">
+        <v>67.440000000000012</v>
+      </c>
+    </row>
+    <row r="557" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P557" s="15">
+        <v>66.570000000000007</v>
+      </c>
+    </row>
+    <row r="558" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P558" s="15">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="559" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P559" s="15">
+        <v>70.349999999999994</v>
+      </c>
+    </row>
+    <row r="560" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P560" s="15">
+        <v>86.67</v>
+      </c>
+    </row>
+    <row r="561" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P561" s="15">
+        <v>66.239999999999995</v>
+      </c>
+    </row>
+    <row r="562" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P562" s="15">
+        <v>75.77</v>
+      </c>
+    </row>
+    <row r="563" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P563" s="15">
+        <v>63.81</v>
+      </c>
+    </row>
+    <row r="564" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P564" s="15">
+        <v>69.249999999999986</v>
+      </c>
+    </row>
+    <row r="565" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P565" s="15">
+        <v>67.36999999999999</v>
+      </c>
+    </row>
+    <row r="566" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P566" s="15">
+        <v>76.250000000000028</v>
+      </c>
+    </row>
+    <row r="567" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P567" s="15">
+        <v>68.62</v>
+      </c>
+    </row>
+    <row r="568" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P568" s="15">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="569" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P569" s="15">
+        <v>66.680000000000007</v>
+      </c>
+    </row>
+    <row r="570" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P570" s="15">
+        <v>60.86</v>
+      </c>
+    </row>
+    <row r="571" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P571" s="15">
+        <v>65.63000000000001</v>
+      </c>
+    </row>
+    <row r="572" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P572" s="15">
+        <v>65.39</v>
+      </c>
+    </row>
+    <row r="573" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P573" s="15">
+        <v>70.680000000000007</v>
+      </c>
+    </row>
+    <row r="574" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P574" s="15">
+        <v>67.86999999999999</v>
+      </c>
+    </row>
+    <row r="575" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P575" s="15">
+        <v>65.77</v>
+      </c>
+    </row>
+    <row r="576" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P576" s="15">
+        <v>66.44</v>
+      </c>
+    </row>
+    <row r="577" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P577" s="15">
+        <v>63.599999999999994</v>
+      </c>
+    </row>
+    <row r="578" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P578" s="15">
+        <v>64.22</v>
+      </c>
+    </row>
+    <row r="579" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P579" s="15">
+        <v>55.559999999999995</v>
+      </c>
+    </row>
+    <row r="580" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P580" s="15">
+        <v>62.86</v>
+      </c>
+    </row>
+    <row r="581" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P581" s="15">
+        <v>68.470000000000013</v>
+      </c>
+    </row>
+    <row r="582" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P582" s="15">
+        <v>79.44</v>
+      </c>
+    </row>
+    <row r="583" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P583" s="15">
+        <v>67.179999999999993</v>
+      </c>
+    </row>
+    <row r="584" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P584" s="15">
+        <v>74.39</v>
+      </c>
+    </row>
+    <row r="585" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P585" s="15">
+        <v>70.699999999999989</v>
+      </c>
+    </row>
+    <row r="586" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P586" s="15">
+        <v>78.870000000000019</v>
+      </c>
+    </row>
+    <row r="587" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P587" s="15">
+        <v>66.44</v>
+      </c>
+    </row>
+    <row r="588" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P588" s="15">
+        <v>81.660000000000011</v>
+      </c>
+    </row>
+    <row r="589" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P589" s="15">
+        <v>61.64</v>
+      </c>
+    </row>
+    <row r="590" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P590" s="15">
+        <v>67.81</v>
+      </c>
+    </row>
+    <row r="591" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P591" s="15">
+        <v>69.389999999999986</v>
+      </c>
+    </row>
+    <row r="592" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P592" s="15">
+        <v>69.260000000000005</v>
+      </c>
+    </row>
+    <row r="593" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P593" s="15">
+        <v>81.11999999999999</v>
+      </c>
+    </row>
+    <row r="594" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P594" s="15">
+        <v>61.91</v>
+      </c>
+    </row>
+    <row r="595" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P595" s="15">
+        <v>68.540000000000006</v>
+      </c>
+    </row>
+    <row r="596" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P596" s="15">
+        <v>65.739999999999995</v>
+      </c>
+    </row>
+    <row r="597" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P597" s="15">
+        <v>59.370000000000005</v>
+      </c>
+    </row>
+    <row r="598" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P598" s="15">
+        <v>73.969999999999985</v>
+      </c>
+    </row>
+    <row r="599" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P599" s="15">
+        <v>67.89</v>
+      </c>
+    </row>
+    <row r="600" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P600" s="15">
+        <v>66.36</v>
+      </c>
+    </row>
+    <row r="601" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P601" s="15">
+        <v>73.05</v>
+      </c>
+    </row>
+    <row r="602" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P602" s="15">
+        <v>75.52000000000001</v>
+      </c>
+    </row>
+    <row r="603" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P603" s="15">
+        <v>71.159999999999982</v>
+      </c>
+    </row>
+    <row r="604" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P604" s="15">
+        <v>67.36</v>
+      </c>
+    </row>
+    <row r="605" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P605" s="15">
+        <v>74.459999999999994</v>
+      </c>
+    </row>
+    <row r="606" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P606" s="15">
+        <v>78.350000000000009</v>
+      </c>
+    </row>
+    <row r="607" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P607" s="15">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="608" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P608" s="15">
+        <v>74.17</v>
+      </c>
+    </row>
+    <row r="609" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P609" s="15">
+        <v>72.190000000000012</v>
+      </c>
+    </row>
+    <row r="610" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P610" s="15">
+        <v>67.259999999999991</v>
+      </c>
+    </row>
+    <row r="611" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P611" s="15">
+        <v>66.59</v>
+      </c>
+    </row>
+    <row r="612" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P612" s="15">
+        <v>60.309999999999995</v>
+      </c>
+    </row>
+    <row r="613" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P613" s="15">
+        <v>60.03</v>
+      </c>
+    </row>
+    <row r="614" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P614" s="15">
+        <v>75.389999999999986</v>
+      </c>
+    </row>
+    <row r="615" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P615" s="15">
+        <v>81.67</v>
+      </c>
+    </row>
+    <row r="616" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P616" s="15">
+        <v>75.53</v>
+      </c>
+    </row>
+    <row r="617" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P617" s="15">
+        <v>69.34</v>
+      </c>
+    </row>
+    <row r="618" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P618" s="15">
+        <v>64.36</v>
+      </c>
+    </row>
+    <row r="619" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P619" s="15">
+        <v>62.889999999999986</v>
+      </c>
+    </row>
+    <row r="620" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P620" s="15">
+        <v>70.680000000000007</v>
+      </c>
+    </row>
+    <row r="621" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P621" s="15">
+        <v>62.569999999999993</v>
+      </c>
+    </row>
+    <row r="622" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P622" s="15">
+        <v>78.209999999999994</v>
+      </c>
+    </row>
+    <row r="623" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P623" s="15">
+        <v>69.209999999999994</v>
+      </c>
+    </row>
+    <row r="624" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P624" s="15">
+        <v>74.38</v>
+      </c>
+    </row>
+    <row r="625" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P625" s="15">
+        <v>60.990000000000009</v>
+      </c>
+    </row>
+    <row r="626" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P626" s="15">
+        <v>64.12</v>
+      </c>
+    </row>
+    <row r="627" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P627" s="15">
+        <v>71.75</v>
+      </c>
+    </row>
+    <row r="628" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P628" s="15">
+        <v>74.05</v>
+      </c>
+    </row>
+    <row r="629" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P629" s="15">
+        <v>62.89</v>
+      </c>
+    </row>
+    <row r="630" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P630" s="15">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="631" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P631" s="15">
+        <v>82.16</v>
+      </c>
+    </row>
+    <row r="632" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P632" s="15">
+        <v>73.37</v>
+      </c>
+    </row>
+    <row r="633" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P633" s="15">
+        <v>71.319999999999993</v>
+      </c>
+    </row>
+    <row r="634" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P634" s="15">
+        <v>75.42</v>
+      </c>
+    </row>
+    <row r="635" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P635" s="15">
+        <v>78.470000000000013</v>
+      </c>
+    </row>
+    <row r="636" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P636" s="15">
+        <v>62.94</v>
+      </c>
+    </row>
+    <row r="637" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P637" s="15">
+        <v>74.28</v>
+      </c>
+    </row>
+    <row r="638" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P638" s="15">
+        <v>70.340000000000018</v>
+      </c>
+    </row>
+    <row r="639" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P639" s="15">
+        <v>72.75</v>
+      </c>
+    </row>
+    <row r="640" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P640" s="15">
+        <v>90.24</v>
+      </c>
+    </row>
+    <row r="641" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P641" s="15">
+        <v>66.23</v>
+      </c>
+    </row>
+    <row r="642" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P642" s="15">
+        <v>80.199999999999989</v>
+      </c>
+    </row>
+    <row r="643" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P643" s="15">
+        <v>59.95</v>
+      </c>
+    </row>
+    <row r="644" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P644" s="15">
+        <v>77.550000000000011</v>
+      </c>
+    </row>
+    <row r="645" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P645" s="15">
+        <v>75.899999999999991</v>
+      </c>
+    </row>
+    <row r="646" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P646" s="15">
+        <v>72.38000000000001</v>
+      </c>
+    </row>
+    <row r="647" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P647" s="15">
+        <v>68.100000000000009</v>
+      </c>
+    </row>
+    <row r="648" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P648" s="15">
+        <v>53.72999999999999</v>
+      </c>
+    </row>
+    <row r="649" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P649" s="15">
+        <v>54.35</v>
+      </c>
+    </row>
+    <row r="650" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P650" s="15">
+        <v>69.42</v>
+      </c>
+    </row>
+    <row r="651" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P651" s="15">
+        <v>58.969999999999992</v>
+      </c>
+    </row>
+    <row r="652" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P652" s="15">
+        <v>67.02000000000001</v>
+      </c>
+    </row>
+    <row r="653" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P653" s="15">
+        <v>64.06</v>
+      </c>
+    </row>
+    <row r="654" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P654" s="15">
+        <v>66.78</v>
+      </c>
+    </row>
+    <row r="655" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P655" s="15">
+        <v>60.92</v>
+      </c>
+    </row>
+    <row r="656" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P656" s="15">
+        <v>70.429999999999993</v>
+      </c>
+    </row>
+    <row r="657" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P657" s="15">
+        <v>59.69</v>
+      </c>
+    </row>
+    <row r="658" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P658" s="15">
+        <v>58.909999999999989</v>
+      </c>
+    </row>
+    <row r="659" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P659" s="15">
+        <v>67.260000000000005</v>
+      </c>
+    </row>
+    <row r="660" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P660" s="15">
+        <v>71.349999999999994</v>
+      </c>
+    </row>
+    <row r="661" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P661" s="15">
+        <v>54.489999999999995</v>
+      </c>
+    </row>
+    <row r="662" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P662" s="15">
+        <v>77.59</v>
+      </c>
+    </row>
+    <row r="663" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P663" s="15">
+        <v>56.959999999999994</v>
+      </c>
+    </row>
+    <row r="664" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P664" s="15">
+        <v>77.259999999999991</v>
+      </c>
+    </row>
+    <row r="665" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P665" s="15">
+        <v>64.42</v>
+      </c>
+    </row>
+    <row r="666" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P666" s="15">
+        <v>58.529999999999994</v>
+      </c>
+    </row>
+    <row r="667" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P667" s="15">
+        <v>61.42</v>
+      </c>
+    </row>
+    <row r="668" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P668" s="15">
+        <v>55.809999999999988</v>
+      </c>
+    </row>
+    <row r="669" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P669" s="15">
+        <v>67.959999999999994</v>
+      </c>
+    </row>
+    <row r="670" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P670" s="15">
+        <v>55.769999999999996</v>
+      </c>
+    </row>
+    <row r="671" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P671" s="15">
+        <v>66.77</v>
+      </c>
+    </row>
+    <row r="672" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P672" s="15">
+        <v>61.03</v>
+      </c>
+    </row>
+    <row r="673" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P673" s="15">
+        <v>67.03</v>
+      </c>
+    </row>
+    <row r="674" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P674" s="15">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="675" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P675" s="15">
+        <v>57.290000000000006</v>
+      </c>
+    </row>
+    <row r="676" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P676" s="15">
+        <v>62.010000000000005</v>
+      </c>
+    </row>
+    <row r="677" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P677" s="15">
+        <v>66.560000000000016</v>
+      </c>
+    </row>
+    <row r="678" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P678" s="15">
+        <v>60.39</v>
+      </c>
+    </row>
+    <row r="679" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P679" s="15">
+        <v>72.390000000000015</v>
+      </c>
+    </row>
+    <row r="680" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P680" s="15">
+        <v>77.010000000000005</v>
+      </c>
+    </row>
+    <row r="681" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P681" s="15">
+        <v>59.05</v>
+      </c>
+    </row>
+    <row r="682" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P682" s="15">
+        <v>71.810000000000016</v>
+      </c>
+    </row>
+    <row r="683" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P683" s="15">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="684" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P684" s="15">
+        <v>66.64</v>
+      </c>
+    </row>
+    <row r="685" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P685" s="15">
+        <v>56.53</v>
+      </c>
+    </row>
+    <row r="686" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P686" s="15">
+        <v>57.58</v>
+      </c>
+    </row>
+    <row r="687" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P687" s="15">
+        <v>63.769999999999996</v>
+      </c>
+    </row>
+    <row r="688" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P688" s="15">
+        <v>55.54</v>
+      </c>
+    </row>
+    <row r="689" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P689" s="15">
+        <v>64.610000000000014</v>
+      </c>
+    </row>
+    <row r="690" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P690" s="15">
+        <v>68.260000000000005</v>
+      </c>
+    </row>
+    <row r="691" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P691" s="15">
+        <v>62.41</v>
+      </c>
+    </row>
+    <row r="692" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P692" s="15">
+        <v>59.67</v>
+      </c>
+    </row>
+    <row r="693" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P693" s="15">
+        <v>53.470000000000013</v>
+      </c>
+    </row>
+    <row r="694" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P694" s="15">
+        <v>64.39</v>
+      </c>
+    </row>
+    <row r="695" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P695" s="15">
+        <v>54.37</v>
+      </c>
+    </row>
+    <row r="696" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P696" s="15">
+        <v>62.989999999999995</v>
+      </c>
+    </row>
+    <row r="697" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P697" s="15">
+        <v>62.69</v>
+      </c>
+    </row>
+    <row r="698" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P698" s="15">
+        <v>64.59</v>
+      </c>
+    </row>
+    <row r="699" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P699" s="15">
+        <v>72.570000000000007</v>
+      </c>
+    </row>
+    <row r="700" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P700" s="15">
+        <v>71.88</v>
+      </c>
+    </row>
+    <row r="701" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P701" s="15">
+        <v>56.009999999999991</v>
+      </c>
+    </row>
+    <row r="702" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P702" s="15">
+        <v>64.709999999999994</v>
+      </c>
+    </row>
+    <row r="703" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P703" s="15">
+        <v>62.689999999999991</v>
+      </c>
+    </row>
+    <row r="704" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P704" s="15">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="705" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P705" s="15">
+        <v>69.33</v>
+      </c>
+    </row>
+    <row r="706" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P706" s="15">
+        <v>74.740000000000009</v>
+      </c>
+    </row>
+    <row r="707" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P707" s="15">
+        <v>72.37</v>
+      </c>
+    </row>
+    <row r="708" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P708" s="15">
+        <v>55.61</v>
+      </c>
+    </row>
+    <row r="709" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P709" s="15">
+        <v>58.08</v>
+      </c>
+    </row>
+    <row r="710" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P710" s="15">
+        <v>57.67</v>
+      </c>
+    </row>
+    <row r="711" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P711" s="15">
+        <v>59.120000000000005</v>
+      </c>
+    </row>
+    <row r="712" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P712" s="15">
+        <v>62.509999999999991</v>
+      </c>
+    </row>
+    <row r="713" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P713" s="15">
+        <v>68.36</v>
+      </c>
+    </row>
+    <row r="714" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P714" s="15">
+        <v>74.069999999999993</v>
+      </c>
+    </row>
+    <row r="715" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P715" s="15">
+        <v>72.040000000000006</v>
+      </c>
+    </row>
+    <row r="716" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P716" s="15">
+        <v>72.61999999999999</v>
+      </c>
+    </row>
+    <row r="717" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P717" s="15">
+        <v>74.510000000000005</v>
+      </c>
+    </row>
+    <row r="718" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P718" s="15">
+        <v>51.679999999999993</v>
+      </c>
+    </row>
+    <row r="719" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P719" s="15">
+        <v>56.169999999999987</v>
+      </c>
+    </row>
+    <row r="720" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P720" s="15">
+        <v>71.06</v>
+      </c>
+    </row>
+    <row r="721" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P721" s="15">
+        <v>74.77000000000001</v>
+      </c>
+    </row>
+    <row r="722" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P722" s="15">
+        <v>71.23</v>
+      </c>
+    </row>
+    <row r="723" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P723" s="15">
+        <v>67.529999999999987</v>
+      </c>
+    </row>
+    <row r="724" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P724" s="15">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="725" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P725" s="15">
+        <v>76.34</v>
+      </c>
+    </row>
+    <row r="726" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P726" s="15">
+        <v>57.359999999999992</v>
+      </c>
+    </row>
+    <row r="727" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P727" s="15">
+        <v>60.519999999999989</v>
+      </c>
+    </row>
+    <row r="728" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P728" s="15">
+        <v>72.95</v>
+      </c>
+    </row>
+    <row r="729" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P729" s="15">
+        <v>63.239999999999995</v>
+      </c>
+    </row>
+    <row r="730" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P730" s="15">
+        <v>60.959999999999994</v>
+      </c>
+    </row>
+    <row r="731" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P731" s="15">
+        <v>50.62</v>
+      </c>
+    </row>
+    <row r="732" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P732" s="15">
+        <v>59.96</v>
+      </c>
+    </row>
+    <row r="733" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P733" s="15">
+        <v>64.27</v>
+      </c>
+    </row>
+    <row r="734" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P734" s="15">
+        <v>55.94</v>
+      </c>
+    </row>
+    <row r="735" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P735" s="15">
+        <v>55.749999999999993</v>
+      </c>
+    </row>
+    <row r="736" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P736" s="15">
+        <v>63.760000000000005</v>
+      </c>
+    </row>
+    <row r="737" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P737" s="15">
+        <v>63.899999999999984</v>
+      </c>
+    </row>
+    <row r="738" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P738" s="15">
+        <v>60.269999999999989</v>
+      </c>
+    </row>
+    <row r="739" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P739" s="15">
+        <v>54.410000000000004</v>
+      </c>
+    </row>
+    <row r="740" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P740" s="15">
+        <v>71.320000000000007</v>
+      </c>
+    </row>
+    <row r="741" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P741" s="15">
+        <v>53.97999999999999</v>
+      </c>
+    </row>
+    <row r="742" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P742" s="15">
+        <v>58.080000000000005</v>
+      </c>
+    </row>
+    <row r="743" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P743" s="15">
+        <v>61.980000000000004</v>
+      </c>
+    </row>
+    <row r="744" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P744" s="15">
+        <v>64.89</v>
+      </c>
+    </row>
+    <row r="745" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P745" s="15">
+        <v>57.11999999999999</v>
+      </c>
+    </row>
+    <row r="746" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P746" s="15">
+        <v>73.289999999999992</v>
+      </c>
+    </row>
+    <row r="747" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P747" s="15">
+        <v>65.55</v>
+      </c>
+    </row>
+    <row r="748" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P748" s="15">
+        <v>65.510000000000005</v>
+      </c>
+    </row>
+    <row r="749" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P749" s="15">
+        <v>61.849999999999994</v>
+      </c>
+    </row>
+    <row r="750" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P750" s="15">
+        <v>62.210000000000008</v>
+      </c>
+    </row>
+    <row r="751" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P751" s="15">
+        <v>57.690000000000012</v>
+      </c>
+    </row>
+    <row r="752" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P752" s="15">
+        <v>66.44</v>
+      </c>
+    </row>
+    <row r="753" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P753" s="15">
+        <v>73.720000000000013</v>
+      </c>
+    </row>
+    <row r="754" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P754" s="15">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="755" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P755" s="15">
+        <v>64.790000000000006</v>
+      </c>
+    </row>
+    <row r="756" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P756" s="15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="757" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P757" s="15">
+        <v>76.160000000000011</v>
+      </c>
+    </row>
+    <row r="758" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P758" s="15">
+        <v>69.36</v>
+      </c>
+    </row>
+    <row r="759" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P759" s="15">
+        <v>67.870000000000019</v>
+      </c>
+    </row>
+    <row r="760" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P760" s="15">
+        <v>66.649999999999991</v>
+      </c>
+    </row>
+    <row r="761" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P761" s="15">
+        <v>63.47</v>
+      </c>
+    </row>
+    <row r="762" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P762" s="15">
+        <v>65.260000000000005</v>
+      </c>
+    </row>
+    <row r="763" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P763" s="15">
+        <v>72.100000000000009</v>
+      </c>
+    </row>
+    <row r="764" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P764" s="15">
+        <v>58.370000000000005</v>
+      </c>
+    </row>
+    <row r="765" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P765" s="15">
+        <v>65.179999999999993</v>
+      </c>
+    </row>
+    <row r="766" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P766" s="15">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="767" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P767" s="15">
+        <v>69.030000000000015</v>
+      </c>
+    </row>
+    <row r="768" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P768" s="15">
+        <v>72.150000000000006</v>
+      </c>
+    </row>
+    <row r="769" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P769" s="15">
+        <v>58.499999999999986</v>
+      </c>
+    </row>
+    <row r="770" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P770" s="15">
+        <v>65.09</v>
+      </c>
+    </row>
+    <row r="771" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P771" s="15">
+        <v>59.559999999999995</v>
+      </c>
+    </row>
+    <row r="772" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P772" s="15">
+        <v>66.69</v>
+      </c>
+    </row>
+    <row r="773" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P773" s="15">
+        <v>62.489999999999995</v>
+      </c>
+    </row>
+    <row r="774" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P774" s="15">
+        <v>65.64</v>
+      </c>
+    </row>
+    <row r="775" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P775" s="15">
+        <v>57.199999999999996</v>
+      </c>
+    </row>
+    <row r="776" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P776" s="15">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="777" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P777" s="15">
+        <v>58.38</v>
+      </c>
+    </row>
+    <row r="778" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P778" s="15">
+        <v>69.150000000000006</v>
+      </c>
+    </row>
+    <row r="779" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P779" s="15">
+        <v>55.820000000000007</v>
+      </c>
+    </row>
+    <row r="780" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P780" s="15">
+        <v>61.42</v>
+      </c>
+    </row>
+    <row r="781" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P781" s="15">
+        <v>66.030000000000015</v>
+      </c>
+    </row>
+    <row r="782" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P782" s="15">
+        <v>62.510000000000005</v>
+      </c>
+    </row>
+    <row r="783" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P783" s="15">
+        <v>60.64</v>
+      </c>
+    </row>
+    <row r="784" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P784" s="15">
+        <v>61.44</v>
+      </c>
+    </row>
+    <row r="785" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P785" s="15">
+        <v>75.860000000000014</v>
+      </c>
+    </row>
+    <row r="786" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P786" s="15">
+        <v>59.26</v>
+      </c>
+    </row>
+    <row r="787" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P787" s="15">
+        <v>67.569999999999993</v>
+      </c>
+    </row>
+    <row r="788" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P788" s="15">
+        <v>62.969999999999985</v>
+      </c>
+    </row>
+    <row r="789" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P789" s="15">
+        <v>75.149999999999991</v>
+      </c>
+    </row>
+    <row r="790" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P790" s="15">
+        <v>58.67</v>
+      </c>
+    </row>
+    <row r="791" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P791" s="15">
+        <v>61.410000000000011</v>
+      </c>
+    </row>
+    <row r="792" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P792" s="15">
+        <v>68.600000000000009</v>
+      </c>
+    </row>
+    <row r="793" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P793" s="15">
+        <v>63.09</v>
+      </c>
+    </row>
+    <row r="794" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P794" s="15">
+        <v>67.63</v>
+      </c>
+    </row>
+    <row r="795" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P795" s="15">
+        <v>68.22</v>
+      </c>
+    </row>
+    <row r="796" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P796" s="15">
+        <v>65.06</v>
+      </c>
+    </row>
+    <row r="797" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P797" s="15">
+        <v>55.86</v>
+      </c>
+    </row>
+    <row r="798" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P798" s="15">
+        <v>61.83</v>
+      </c>
+    </row>
+    <row r="799" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P799" s="15">
+        <v>60.010000000000005</v>
+      </c>
+    </row>
+    <row r="800" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P800" s="15">
+        <v>61.84</v>
+      </c>
+    </row>
+    <row r="801" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P801" s="15">
+        <v>70.239999999999995</v>
+      </c>
+    </row>
+    <row r="802" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P802" s="15">
+        <v>68.970000000000013</v>
+      </c>
+    </row>
+    <row r="803" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P803" s="15">
+        <v>69.86</v>
+      </c>
+    </row>
+    <row r="804" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P804" s="15">
+        <v>66.61</v>
+      </c>
+    </row>
+    <row r="805" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P805" s="15">
+        <v>55.86999999999999</v>
+      </c>
+    </row>
+    <row r="806" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P806" s="15">
+        <v>60.210000000000008</v>
+      </c>
+    </row>
+    <row r="807" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P807" s="15">
+        <v>65.38</v>
+      </c>
+    </row>
+    <row r="808" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P808" s="15">
+        <v>58.129999999999988</v>
+      </c>
+    </row>
+    <row r="809" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P809" s="15">
+        <v>64.27000000000001</v>
+      </c>
+    </row>
+    <row r="810" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P810" s="15">
+        <v>66.95</v>
+      </c>
+    </row>
+    <row r="811" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P811" s="15">
+        <v>67.17</v>
+      </c>
+    </row>
+    <row r="812" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P812" s="15">
+        <v>59.260000000000005</v>
+      </c>
+    </row>
+    <row r="813" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P813" s="15">
+        <v>68.48</v>
+      </c>
+    </row>
+    <row r="814" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P814" s="15">
+        <v>62.67</v>
+      </c>
+    </row>
+    <row r="815" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P815" s="15">
+        <v>61.359999999999992</v>
+      </c>
+    </row>
+    <row r="816" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P816" s="15">
+        <v>59.36</v>
+      </c>
+    </row>
+    <row r="817" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P817" s="15">
+        <v>55.120000000000005</v>
+      </c>
+    </row>
+    <row r="818" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P818" s="15">
+        <v>72.320000000000007</v>
+      </c>
+    </row>
+    <row r="819" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P819" s="15">
+        <v>74.94</v>
+      </c>
+    </row>
+    <row r="820" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P820" s="15">
+        <v>75.150000000000006</v>
+      </c>
+    </row>
+    <row r="821" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P821" s="15">
+        <v>67.039999999999992</v>
+      </c>
+    </row>
+    <row r="822" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P822" s="15">
+        <v>66.09</v>
+      </c>
+    </row>
+    <row r="823" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P823" s="15">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="824" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P824" s="15">
+        <v>60.819999999999993</v>
+      </c>
+    </row>
+    <row r="825" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P825" s="15">
+        <v>65.09</v>
+      </c>
+    </row>
+    <row r="826" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P826" s="15">
+        <v>60.650000000000006</v>
+      </c>
+    </row>
+    <row r="827" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P827" s="15">
+        <v>70.67</v>
+      </c>
+    </row>
+    <row r="828" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P828" s="15">
+        <v>66.87</v>
+      </c>
+    </row>
+    <row r="829" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P829" s="15">
+        <v>66.430000000000007</v>
+      </c>
+    </row>
+    <row r="830" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P830" s="15">
+        <v>63.67</v>
+      </c>
+    </row>
+    <row r="831" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P831" s="15">
+        <v>70.240000000000009</v>
+      </c>
+    </row>
+    <row r="832" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P832" s="15">
+        <v>58.129999999999988</v>
+      </c>
+    </row>
+    <row r="833" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P833" s="15">
+        <v>55.919999999999987</v>
+      </c>
+    </row>
+    <row r="834" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P834" s="15">
+        <v>56.84</v>
+      </c>
+    </row>
+    <row r="835" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P835" s="15">
+        <v>60.41</v>
+      </c>
+    </row>
+    <row r="836" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P836" s="15">
+        <v>54.989999999999995</v>
+      </c>
+    </row>
+    <row r="837" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P837" s="15">
+        <v>64.83</v>
+      </c>
+    </row>
+    <row r="838" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P838" s="15">
+        <v>65.860000000000014</v>
+      </c>
+    </row>
+    <row r="839" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P839" s="15">
+        <v>70.489999999999995</v>
+      </c>
+    </row>
+    <row r="840" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P840" s="15">
+        <v>68.930000000000007</v>
+      </c>
+    </row>
+    <row r="841" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P841" s="15">
+        <v>69.11</v>
+      </c>
+    </row>
+    <row r="842" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P842" s="15">
+        <v>58.580000000000005</v>
+      </c>
+    </row>
+    <row r="843" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P843" s="15">
+        <v>57.099999999999994</v>
+      </c>
+    </row>
+    <row r="844" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P844" s="15">
+        <v>54.08</v>
+      </c>
+    </row>
+    <row r="845" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P845" s="15">
+        <v>59.78</v>
+      </c>
+    </row>
+    <row r="846" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P846" s="15">
+        <v>63.39</v>
+      </c>
+    </row>
+    <row r="847" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P847" s="15">
+        <v>70.42</v>
+      </c>
+    </row>
+    <row r="848" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P848" s="15">
+        <v>64.17</v>
+      </c>
+    </row>
+    <row r="849" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P849" s="15">
+        <v>60.419999999999987</v>
+      </c>
+    </row>
+    <row r="850" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P850" s="15">
+        <v>57.129999999999995</v>
+      </c>
+    </row>
+    <row r="851" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P851" s="15">
+        <v>71.67</v>
+      </c>
+    </row>
+    <row r="852" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P852" s="15">
+        <v>64.09</v>
+      </c>
+    </row>
+    <row r="853" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P853" s="15">
+        <v>52.39</v>
+      </c>
+    </row>
+    <row r="854" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P854" s="15">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="855" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P855" s="15">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="856" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P856" s="15">
+        <v>57.959999999999994</v>
+      </c>
+    </row>
+    <row r="857" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P857" s="15">
+        <v>71.59</v>
+      </c>
+    </row>
+    <row r="858" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P858" s="15">
+        <v>57.95</v>
+      </c>
+    </row>
+    <row r="859" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P859" s="15">
+        <v>75.839999999999989</v>
+      </c>
+    </row>
+    <row r="860" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P860" s="15">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="861" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P861" s="15">
+        <v>67.14</v>
+      </c>
+    </row>
+    <row r="862" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P862" s="15">
+        <v>63.39</v>
+      </c>
+    </row>
+    <row r="863" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P863" s="15">
+        <v>60.19</v>
+      </c>
+    </row>
+    <row r="864" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P864" s="15">
+        <v>71.66</v>
+      </c>
+    </row>
+    <row r="865" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P865" s="15">
+        <v>67.040000000000006</v>
+      </c>
+    </row>
+    <row r="866" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P866" s="15">
+        <v>54.000000000000007</v>
+      </c>
+    </row>
+    <row r="867" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P867" s="15">
+        <v>62.980000000000004</v>
+      </c>
+    </row>
+    <row r="868" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P868" s="15">
+        <v>76.97</v>
+      </c>
+    </row>
+    <row r="869" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P869" s="15">
+        <v>69.61</v>
+      </c>
+    </row>
+    <row r="870" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P870" s="15">
+        <v>61.03</v>
+      </c>
+    </row>
+    <row r="871" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P871" s="15">
+        <v>64.929999999999993</v>
+      </c>
+    </row>
+    <row r="872" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P872" s="15">
+        <v>70.14</v>
+      </c>
+    </row>
+    <row r="873" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P873" s="15">
+        <v>52.58</v>
+      </c>
+    </row>
+    <row r="874" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P874" s="15">
+        <v>64.150000000000006</v>
+      </c>
+    </row>
+    <row r="875" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P875" s="15">
+        <v>61.22</v>
+      </c>
+    </row>
+    <row r="876" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P876" s="15">
+        <v>71.91</v>
+      </c>
+    </row>
+    <row r="877" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P877" s="15">
+        <v>65.259999999999991</v>
+      </c>
+    </row>
+    <row r="878" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P878" s="15">
+        <v>63.849999999999994</v>
+      </c>
+    </row>
+    <row r="879" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P879" s="15">
+        <v>63.800000000000004</v>
+      </c>
+    </row>
+    <row r="880" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P880" s="15">
+        <v>61.78</v>
+      </c>
+    </row>
+    <row r="881" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P881" s="15">
+        <v>68.239999999999995</v>
+      </c>
+    </row>
+    <row r="882" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P882" s="15">
+        <v>66.930000000000007</v>
+      </c>
+    </row>
+    <row r="883" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P883" s="15">
+        <v>62.61</v>
+      </c>
+    </row>
+    <row r="884" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P884" s="15">
+        <v>61.58</v>
+      </c>
+    </row>
+    <row r="885" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P885" s="15">
+        <v>67.449999999999989</v>
+      </c>
+    </row>
+    <row r="886" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P886" s="15">
+        <v>68.299999999999983</v>
+      </c>
+    </row>
+    <row r="887" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P887" s="15">
+        <v>67.86</v>
+      </c>
+    </row>
+    <row r="888" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P888" s="15">
+        <v>58.779999999999987</v>
+      </c>
+    </row>
+    <row r="889" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P889" s="15">
+        <v>66.709999999999994</v>
+      </c>
+    </row>
+    <row r="890" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P890" s="15">
+        <v>71.28</v>
+      </c>
+    </row>
+    <row r="891" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P891" s="15">
+        <v>63.05</v>
+      </c>
+    </row>
+    <row r="892" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P892" s="15">
+        <v>59.559999999999995</v>
+      </c>
+    </row>
+    <row r="893" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P893" s="15">
+        <v>54.589999999999989</v>
+      </c>
+    </row>
+    <row r="894" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P894" s="15">
+        <v>66.459999999999994</v>
+      </c>
+    </row>
+    <row r="895" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P895" s="15">
+        <v>69.39</v>
+      </c>
+    </row>
+    <row r="896" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P896" s="15">
+        <v>59.189999999999991</v>
+      </c>
+    </row>
+    <row r="897" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P897" s="15">
+        <v>68.480000000000018</v>
+      </c>
+    </row>
+    <row r="898" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P898" s="15">
+        <v>65.67</v>
+      </c>
+    </row>
+    <row r="899" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P899" s="15">
+        <v>58.43</v>
+      </c>
+    </row>
+    <row r="900" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P900" s="15">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="901" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P901" s="15">
+        <v>77.22999999999999</v>
+      </c>
+    </row>
+    <row r="902" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P902" s="15">
+        <v>74.64</v>
+      </c>
+    </row>
+    <row r="903" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P903" s="15">
+        <v>56.37</v>
+      </c>
+    </row>
+    <row r="904" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P904" s="15">
+        <v>58.870000000000005</v>
+      </c>
+    </row>
+    <row r="905" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P905" s="15">
+        <v>61.669999999999995</v>
+      </c>
+    </row>
+    <row r="906" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P906" s="15">
+        <v>69.570000000000007</v>
+      </c>
+    </row>
+    <row r="907" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P907" s="15">
+        <v>62.379999999999995</v>
+      </c>
+    </row>
+    <row r="908" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P908" s="15">
+        <v>77.180000000000007</v>
+      </c>
+    </row>
+    <row r="909" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P909" s="15">
+        <v>61.54999999999999</v>
+      </c>
+    </row>
+    <row r="910" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P910" s="15">
+        <v>73.160000000000011</v>
+      </c>
+    </row>
+    <row r="911" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P911" s="15">
+        <v>58.069999999999993</v>
+      </c>
+    </row>
+    <row r="912" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P912" s="15">
+        <v>71.94</v>
+      </c>
+    </row>
+    <row r="913" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P913" s="15">
+        <v>72.650000000000006</v>
+      </c>
+    </row>
+    <row r="914" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P914" s="15">
+        <v>63.41</v>
+      </c>
+    </row>
+    <row r="915" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P915" s="15">
+        <v>59.22</v>
+      </c>
+    </row>
+    <row r="916" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P916" s="15">
+        <v>67.439999999999984</v>
+      </c>
+    </row>
+    <row r="917" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P917" s="15">
+        <v>50.11</v>
+      </c>
+    </row>
+    <row r="918" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P918" s="15">
+        <v>75.34</v>
+      </c>
+    </row>
+    <row r="919" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P919" s="15">
+        <v>65.06</v>
+      </c>
+    </row>
+    <row r="920" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P920" s="15">
+        <v>77.69</v>
+      </c>
+    </row>
+    <row r="921" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P921" s="15">
+        <v>74.38000000000001</v>
+      </c>
+    </row>
+    <row r="922" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P922" s="15">
+        <v>75.089999999999989</v>
+      </c>
+    </row>
+    <row r="923" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P923" s="15">
+        <v>60.879999999999995</v>
+      </c>
+    </row>
+    <row r="924" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P924" s="15">
+        <v>60.419999999999995</v>
+      </c>
+    </row>
+    <row r="925" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P925" s="15">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="926" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P926" s="15">
+        <v>64.38</v>
+      </c>
+    </row>
+    <row r="927" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P927" s="15">
+        <v>56.440000000000005</v>
+      </c>
+    </row>
+    <row r="928" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P928" s="15">
+        <v>61.370000000000005</v>
+      </c>
+    </row>
+    <row r="929" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P929" s="15">
+        <v>64.129999999999981</v>
+      </c>
+    </row>
+    <row r="930" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P930" s="15">
+        <v>61.609999999999992</v>
+      </c>
+    </row>
+    <row r="931" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P931" s="15">
+        <v>62.97</v>
+      </c>
+    </row>
+    <row r="932" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P932" s="15">
+        <v>59.750000000000014</v>
+      </c>
+    </row>
+    <row r="933" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P933" s="15">
+        <v>71.61</v>
+      </c>
+    </row>
+    <row r="934" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P934" s="15">
+        <v>66.47999999999999</v>
+      </c>
+    </row>
+    <row r="935" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P935" s="15">
+        <v>81.969999999999985</v>
+      </c>
+    </row>
+    <row r="936" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P936" s="15">
+        <v>69.030000000000015</v>
+      </c>
+    </row>
+    <row r="937" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P937" s="15">
+        <v>66.499999999999986</v>
+      </c>
+    </row>
+    <row r="938" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P938" s="15">
+        <v>69.740000000000009</v>
+      </c>
+    </row>
+    <row r="939" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P939" s="15">
+        <v>68.72</v>
+      </c>
+    </row>
+    <row r="940" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P940" s="15">
+        <v>69.029999999999987</v>
+      </c>
+    </row>
+    <row r="941" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P941" s="15">
+        <v>64.92</v>
+      </c>
+    </row>
+    <row r="942" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P942" s="15">
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="943" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P943" s="15">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="944" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P944" s="15">
+        <v>64.930000000000007</v>
+      </c>
+    </row>
+    <row r="945" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P945" s="15">
+        <v>69.820000000000007</v>
+      </c>
+    </row>
+    <row r="946" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P946" s="15">
+        <v>79.67</v>
+      </c>
+    </row>
+    <row r="947" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P947" s="15">
+        <v>69.95</v>
+      </c>
+    </row>
+    <row r="948" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P948" s="15">
+        <v>66.86999999999999</v>
+      </c>
+    </row>
+    <row r="949" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P949" s="15">
+        <v>73.27000000000001</v>
+      </c>
+    </row>
+    <row r="950" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P950" s="15">
+        <v>62.91</v>
+      </c>
+    </row>
+    <row r="951" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P951" s="15">
+        <v>69.58</v>
+      </c>
+    </row>
+    <row r="952" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P952" s="15">
+        <v>68.17</v>
+      </c>
+    </row>
+    <row r="953" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P953" s="15">
+        <v>74.73</v>
+      </c>
+    </row>
+    <row r="954" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P954" s="15">
+        <v>53.41</v>
+      </c>
+    </row>
+    <row r="955" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P955" s="15">
+        <v>56.989999999999995</v>
+      </c>
+    </row>
+    <row r="956" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P956" s="15">
+        <v>67.03</v>
+      </c>
+    </row>
+    <row r="957" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P957" s="15">
+        <v>56.08</v>
+      </c>
+    </row>
+    <row r="958" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P958" s="15">
+        <v>57.769999999999996</v>
+      </c>
+    </row>
+    <row r="959" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P959" s="15">
+        <v>60.03</v>
+      </c>
+    </row>
+    <row r="960" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P960" s="15">
+        <v>63.249999999999993</v>
+      </c>
+    </row>
+    <row r="961" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P961" s="15">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="962" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P962" s="15">
+        <v>71.739999999999995</v>
+      </c>
+    </row>
+    <row r="963" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P963" s="15">
+        <v>56.54</v>
+      </c>
+    </row>
+    <row r="964" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P964" s="15">
+        <v>64.64</v>
+      </c>
+    </row>
+    <row r="965" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P965" s="15">
+        <v>70.12</v>
+      </c>
+    </row>
+    <row r="966" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P966" s="15">
+        <v>68.930000000000007</v>
+      </c>
+    </row>
+    <row r="967" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P967" s="15">
+        <v>65.089999999999989</v>
+      </c>
+    </row>
+    <row r="968" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P968" s="15">
+        <v>63.019999999999996</v>
+      </c>
+    </row>
+    <row r="969" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P969" s="15">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="970" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P970" s="15">
+        <v>67.98</v>
+      </c>
+    </row>
+    <row r="971" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P971" s="15">
+        <v>64.440000000000012</v>
+      </c>
+    </row>
+    <row r="972" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P972" s="15">
+        <v>76.81</v>
+      </c>
+    </row>
+    <row r="973" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P973" s="15">
+        <v>66.999999999999986</v>
+      </c>
+    </row>
+    <row r="974" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P974" s="15">
+        <v>64.28</v>
+      </c>
+    </row>
+    <row r="975" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P975" s="15">
+        <v>72.05</v>
+      </c>
+    </row>
+    <row r="976" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P976" s="15">
+        <v>61.14</v>
+      </c>
+    </row>
+    <row r="977" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P977" s="15">
+        <v>69.410000000000011</v>
+      </c>
+    </row>
+    <row r="978" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P978" s="15">
+        <v>77.970000000000013</v>
+      </c>
+    </row>
+    <row r="979" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P979" s="15">
+        <v>58.44</v>
+      </c>
+    </row>
+    <row r="980" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P980" s="15">
+        <v>71.84</v>
+      </c>
+    </row>
+    <row r="981" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P981" s="15">
+        <v>88.000000000000014</v>
+      </c>
+    </row>
+    <row r="982" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P982" s="15">
+        <v>85.350000000000009</v>
+      </c>
+    </row>
+    <row r="983" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P983" s="15">
+        <v>74.510000000000005</v>
+      </c>
+    </row>
+    <row r="984" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P984" s="15">
+        <v>58.580000000000005</v>
+      </c>
+    </row>
+    <row r="985" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P985" s="15">
+        <v>84.73</v>
+      </c>
+    </row>
+    <row r="986" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P986" s="15">
+        <v>73.81</v>
+      </c>
+    </row>
+    <row r="987" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P987" s="15">
+        <v>62.15</v>
+      </c>
+    </row>
+    <row r="988" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P988" s="15">
+        <v>77.289999999999992</v>
+      </c>
+    </row>
+    <row r="989" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P989" s="15">
+        <v>76.91</v>
+      </c>
+    </row>
+    <row r="990" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P990" s="15">
+        <v>78.38000000000001</v>
+      </c>
+    </row>
+    <row r="991" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P991" s="15">
+        <v>67.12</v>
+      </c>
+    </row>
+    <row r="992" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P992" s="15">
+        <v>66.03</v>
+      </c>
+    </row>
+    <row r="993" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P993" s="15">
+        <v>78.22</v>
+      </c>
+    </row>
+    <row r="994" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P994" s="15">
+        <v>58.829999999999991</v>
+      </c>
+    </row>
+    <row r="995" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P995" s="15">
+        <v>62.440000000000005</v>
+      </c>
+    </row>
+    <row r="996" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P996" s="15">
+        <v>86.09</v>
+      </c>
+    </row>
+    <row r="997" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P997" s="15">
+        <v>74.680000000000007</v>
+      </c>
+    </row>
+    <row r="998" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P998" s="15">
+        <v>73.710000000000008</v>
+      </c>
+    </row>
+    <row r="999" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P999" s="15">
+        <v>81.11</v>
+      </c>
+    </row>
+    <row r="1000" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1000" s="15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1001" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1001" s="15">
+        <v>68.720000000000027</v>
+      </c>
+    </row>
+    <row r="1002" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1002" s="15">
+        <v>61.660000000000004</v>
+      </c>
+    </row>
+    <row r="1003" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1003" s="15">
+        <v>84.320000000000007</v>
+      </c>
+    </row>
+    <row r="1004" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1004" s="15">
+        <v>73.780000000000015</v>
+      </c>
+    </row>
+    <row r="1005" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1005" s="15">
+        <v>80.05</v>
+      </c>
+    </row>
+    <row r="1006" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1006" s="15">
+        <v>58.660000000000004</v>
+      </c>
+    </row>
+    <row r="1007" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1007" s="15">
+        <v>75.430000000000021</v>
+      </c>
+    </row>
+    <row r="1008" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1008" s="15">
+        <v>79.160000000000011</v>
+      </c>
+    </row>
+    <row r="1009" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1009" s="15">
+        <v>74.490000000000009</v>
+      </c>
+    </row>
+    <row r="1010" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1010" s="15">
+        <v>86.02</v>
+      </c>
+    </row>
+    <row r="1011" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1011" s="15">
+        <v>77.61</v>
+      </c>
+    </row>
+    <row r="1012" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1012" s="15">
+        <v>68.830000000000013</v>
+      </c>
+    </row>
+    <row r="1013" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1013" s="15">
+        <v>73.530000000000015</v>
+      </c>
+    </row>
+    <row r="1014" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1014" s="15">
+        <v>66.800000000000011</v>
+      </c>
+    </row>
+    <row r="1015" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1015" s="15">
+        <v>72.780000000000015</v>
+      </c>
+    </row>
+    <row r="1016" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1016" s="15">
+        <v>68.34</v>
+      </c>
+    </row>
+    <row r="1017" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1017" s="15">
+        <v>61.139999999999993</v>
+      </c>
+    </row>
+    <row r="1018" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1018" s="15">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="1019" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1019" s="15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1020" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1020" s="15">
+        <v>60.98</v>
+      </c>
+    </row>
+    <row r="1021" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1021" s="15">
+        <v>72.910000000000011</v>
+      </c>
+    </row>
+    <row r="1022" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1022" s="15">
+        <v>77.510000000000005</v>
+      </c>
+    </row>
+    <row r="1023" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1023" s="15">
+        <v>69.200000000000017</v>
+      </c>
+    </row>
+    <row r="1024" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1024" s="15">
+        <v>55.629999999999995</v>
+      </c>
+    </row>
+    <row r="1025" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1025" s="15">
+        <v>78.719999999999985</v>
+      </c>
+    </row>
+    <row r="1026" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1026" s="15">
+        <v>81.210000000000008</v>
+      </c>
+    </row>
+    <row r="1027" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1027" s="15">
+        <v>77.02000000000001</v>
+      </c>
+    </row>
+    <row r="1028" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1028" s="15">
+        <v>78.039999999999992</v>
+      </c>
+    </row>
+    <row r="1029" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1029" s="15">
+        <v>77.77000000000001</v>
+      </c>
+    </row>
+    <row r="1030" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1030" s="15">
+        <v>77.939999999999984</v>
+      </c>
+    </row>
+    <row r="1031" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1031" s="15">
+        <v>67.940000000000012</v>
+      </c>
+    </row>
+    <row r="1032" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1032" s="15">
+        <v>73.960000000000008</v>
+      </c>
+    </row>
+    <row r="1033" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1033" s="15">
+        <v>67.190000000000012</v>
+      </c>
+    </row>
+    <row r="1034" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1034" s="15">
+        <v>69.72999999999999</v>
+      </c>
+    </row>
+    <row r="1035" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1035" s="15">
+        <v>61.460000000000008</v>
+      </c>
+    </row>
+    <row r="1036" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P1036" s="15">
+        <v>67.540000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/창업기업평가_하나은행_2022_원본_07_10개독립변수.xlsx
+++ b/창업기업평가_하나은행_2022_원본_07_10개독립변수.xlsx
@@ -811,8 +811,8 @@
   <dimension ref="A1:Q1036"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1003" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1013" sqref="D1013"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -51537,7 +51537,7 @@
         <v>0</v>
       </c>
       <c r="O957" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P957" s="13">
         <v>0</v>
